--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43916</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43825</v>
+      </c>
+      <c r="F7" s="2">
         <v>43734</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43643</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43552</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43461</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43370</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43279</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43188</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43097</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43006</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42915</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42824</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42733</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>554900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>527000</v>
+      </c>
+      <c r="F8" s="3">
         <v>521100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>520300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>477100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>436700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>435900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>434300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>402900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>389500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>343900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>344000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>307300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>278300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>318900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>297000</v>
+      </c>
+      <c r="F9" s="3">
         <v>307300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>302500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>275700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>255700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>257700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>256600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>237600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>227100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>201400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>201800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>181800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>163500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F10" s="3">
         <v>213800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>217800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>201400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>181000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>178200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>177700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>165300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>162400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>142500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>142200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>125500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>114800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5400</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>508300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>484900</v>
+      </c>
+      <c r="F17" s="3">
         <v>489700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>474400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>437300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>413400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>401600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>397000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>366400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>357100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>315300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>315400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>284600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>260000</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F18" s="3">
         <v>31400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>45900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>39800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>23300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>34300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>37300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>36500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>32400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>28600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>28600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>22700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>18300</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,14 +1257,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1219,187 +1286,217 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F21" s="3">
         <v>49800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>63600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>56900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>38300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>47600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>49300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>48000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>42800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>38200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>37800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>31600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>26600</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F23" s="3">
         <v>29400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>43700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>36800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>20500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>32100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>35100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>34700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>30000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>26000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>25300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>17300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-11600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3200</v>
       </c>
       <c r="H24" s="3">
         <v>6100</v>
       </c>
       <c r="I24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F26" s="3">
         <v>41000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>39800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>30100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>23300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>20400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>11100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>16700</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F27" s="3">
         <v>41000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>43600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>26000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>39800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>30100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>23300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>20400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>11100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>16700</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1689,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>17800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,14 +1857,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1747,55 +1886,67 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F33" s="3">
         <v>41000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>43600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>17900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>26600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>39800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>48000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>23300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>20400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>11100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>16700</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F35" s="3">
         <v>41000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>43600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>17900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>26600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>39800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>48000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>23300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>20400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>11100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>16700</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43916</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43825</v>
+      </c>
+      <c r="F38" s="2">
         <v>43734</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43643</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43552</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43461</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43370</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43279</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43188</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43097</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43006</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42915</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42824</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42733</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>289900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F41" s="3">
         <v>84100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>51500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>600</v>
-      </c>
       <c r="K41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
       </c>
       <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2234,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F43" s="3">
         <v>54500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>38500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>66100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>71900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>65900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>57200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>48000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>66500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>52600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>40600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>33400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>34500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>588900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>581900</v>
+      </c>
+      <c r="F44" s="3">
         <v>484000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>446400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>437500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>471000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>403800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>432400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>426700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>428000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>395600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>367500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>316500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>293700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>27700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>701500</v>
+      </c>
+      <c r="F46" s="3">
         <v>643700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>564000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>527400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>559500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>486800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>502300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>486400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>503200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>456300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>416100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>359900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>336200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,60 +2484,72 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1338600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1278500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1169000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1102700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>998000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>328400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>271500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>245400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>221000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>183600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>163800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>150500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="E49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="F49" s="3">
         <v>336800</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>336800</v>
+      </c>
+      <c r="R49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>11200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2633900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2324300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2156900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2011100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1873400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1234100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1131900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1118400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1075900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1068000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>944200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>868400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>831200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,63 +2878,71 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>319800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>368500</v>
+      </c>
+      <c r="F57" s="3">
         <v>318400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>272700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>229500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>313500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>237800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>265000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>255000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>258700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>249200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>243600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>205900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>158500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>3500</v>
@@ -2705,186 +2972,216 @@
         <v>3500</v>
       </c>
       <c r="P58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>184900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>184100</v>
+      </c>
+      <c r="F59" s="3">
         <v>174100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>148400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>165400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>87300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>82900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>66800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>72600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>97100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>91500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>75300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>83800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>81700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>506500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>552500</v>
+      </c>
+      <c r="F60" s="3">
         <v>492400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>424600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>398300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>404300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>324200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>335300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>331100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>359300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>344200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>322400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>293200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>243700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>143300</v>
+        <v>413300</v>
       </c>
       <c r="E61" s="3">
-        <v>140500</v>
+        <v>142600</v>
       </c>
       <c r="F61" s="3">
         <v>143300</v>
       </c>
       <c r="G61" s="3">
+        <v>140500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>143300</v>
+      </c>
+      <c r="I61" s="3">
         <v>141800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>142500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>156800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>169800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>185600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>183900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>178300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>351200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>387200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>904800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>864800</v>
+      </c>
+      <c r="F62" s="3">
         <v>798100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>775100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>711800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>103700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>101500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>91600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>87400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>80300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>84600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>82300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>77800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>65900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1824600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1433800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1340200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1253400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>649800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>568200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>583700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>588300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>625100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>612800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>583100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>722200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>696900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>431100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>394000</v>
+      </c>
+      <c r="F72" s="3">
         <v>358700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>317700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>274100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>243600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>225700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>199100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>159200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>119600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>71600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>48300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>27900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>16800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>809300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>764300</v>
+      </c>
+      <c r="F76" s="3">
         <v>723000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>670900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>620000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>584300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>563700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>534700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>487600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>442900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>388200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>361100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>146100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>134300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43916</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43825</v>
+      </c>
+      <c r="F80" s="2">
         <v>43734</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43643</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43552</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43461</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43370</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43279</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43188</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43097</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43006</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42915</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42824</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42733</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F81" s="3">
         <v>41000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>43600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>17900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>26600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>39800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>48000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>23300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>20400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>11100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>16700</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F83" s="3">
         <v>18400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>17200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>13400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F89" s="3">
         <v>87400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>95100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>41900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>59800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>43300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>40600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>10400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>56100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>18500</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-62800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-46500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-31600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-42000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-35600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-27800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-32600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-25700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-22400</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-62800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-46500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-31600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-42000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-46000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-35600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-27800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-32600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-25700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-19800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-22400</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-12800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>15300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-36300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,29 +4909,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>262900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="F102" s="3">
         <v>32700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>51000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4442,18 +4945,24 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E7" s="2">
         <v>43916</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43734</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43552</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43461</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43370</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43279</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43188</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43097</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43006</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42915</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42824</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42733</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>462400</v>
+      </c>
+      <c r="E8" s="3">
         <v>554900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>527000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>521100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>520300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>477100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>436700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>435900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>434300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>389500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>343900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>344000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>307300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>278300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>265700</v>
+      </c>
+      <c r="E9" s="3">
         <v>318900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>297000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>307300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>302500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>275700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>255700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>257700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>256600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>237600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>227100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>201400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>201800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>181800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>163500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E10" s="3">
         <v>236000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>230000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>213800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>217800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>201400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>181000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>178200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>177700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>165300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>142500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>142200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>114800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1028,8 +1048,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1037,29 +1057,32 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>5400</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>440200</v>
+      </c>
+      <c r="E17" s="3">
         <v>508300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>484900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>489700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>474400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>437300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>413400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>401600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>397000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>366400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>357100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>315300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>315400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>284600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>260000</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E18" s="3">
         <v>46600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>28600</v>
       </c>
       <c r="O18" s="3">
         <v>28600</v>
       </c>
       <c r="P18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>22700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18300</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,11 +1297,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1292,211 +1326,226 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E21" s="3">
         <v>68800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>62800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>49800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>63600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>37800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26600</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5400</v>
       </c>
       <c r="Q22" s="3">
         <v>5400</v>
       </c>
       <c r="R22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E23" s="3">
         <v>44900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>40400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E26" s="3">
         <v>37100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16700</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E27" s="3">
         <v>37100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16700</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1715,23 +1776,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>600</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>600</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>17800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,11 +1933,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1892,61 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E33" s="3">
         <v>37100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>43600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16700</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E35" s="3">
         <v>37100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>43600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16700</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E38" s="2">
         <v>43916</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43734</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43552</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43461</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43370</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43279</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43188</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43097</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43006</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42915</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42824</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42733</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,37 +2226,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E41" s="3">
         <v>289900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>600</v>
@@ -2179,19 +2266,22 @@
         <v>600</v>
       </c>
       <c r="O41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E43" s="3">
         <v>50600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>71900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>65900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>40600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>34500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>594300</v>
+      </c>
+      <c r="E44" s="3">
         <v>588900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>581900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>484000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>446400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>437500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>471000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>403800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>432400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>426700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>428000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>395600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>367500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>316500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>293700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E45" s="3">
         <v>21600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E46" s="3">
         <v>951000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>701500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>643700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>564000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>527400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>559500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>486800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>502300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>486400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>503200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>456300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>416100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>359900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>336200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1354900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1338600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1278500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1169000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1102700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>998000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>328400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>271500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>245400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>163800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>150500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,7 +2663,7 @@
         <v>336700</v>
       </c>
       <c r="F49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="G49" s="3">
         <v>336800</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2528700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2633900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2324300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2156900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2011100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1873400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1234100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1131900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1118400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1075900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1068000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>944200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>868400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>831200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,72 +3010,76 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E57" s="3">
         <v>319800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>368500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>318400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>272700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>229500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>313500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>237800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>265000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>255000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>258700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>249200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>243600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>205900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>158500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>3500</v>
@@ -2978,210 +3112,225 @@
         <v>3500</v>
       </c>
       <c r="R58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E59" s="3">
         <v>184900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>184100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>174100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>148400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>165400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>87300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>82900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>97100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>75300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>533700</v>
+      </c>
+      <c r="E60" s="3">
         <v>506500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>552500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>492400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>424600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>398300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>404300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>324200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>335300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>331100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>359300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>344200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>322400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>293200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>243700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E61" s="3">
         <v>413300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>142600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>143300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>140500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>143300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>141800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>142500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>156800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>169800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>185600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>183900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>178300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>351200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>387200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>937600</v>
+      </c>
+      <c r="E62" s="3">
         <v>904800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>864800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>798100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>775100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>711800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>103700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>101500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>91600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>77800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>65900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1678200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1824600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1560000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1433800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1340200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1253400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>649800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>568200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>583700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>588300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>625100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>612800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>583100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>722200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>696900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>463100</v>
+      </c>
+      <c r="E72" s="3">
         <v>431100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>394000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>358700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>317700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>274100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>243600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>225700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>199100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>159200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>119600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>71600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>850500</v>
+      </c>
+      <c r="E76" s="3">
         <v>809300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>764300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>723000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>670900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>620000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>584300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>563700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>534700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>487600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>442900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>388200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>361100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>146100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>134300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E80" s="2">
         <v>43916</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43734</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43552</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43461</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43370</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43279</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43188</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43097</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43006</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42915</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42824</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42733</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E81" s="3">
         <v>37100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>43600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16700</v>
       </c>
-      <c r="R81" s="3" t="s">
+      <c r="S81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E83" s="3">
         <v>22100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8300</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E89" s="3">
         <v>24700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>95100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>59800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18500</v>
       </c>
-      <c r="R89" s="3" t="s">
+      <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22400</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22400</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-199900</v>
+      </c>
+      <c r="E100" s="3">
         <v>276600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,32 +5164,35 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E102" s="3">
         <v>262900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4951,18 +5203,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44098</v>
+      </c>
+      <c r="E7" s="2">
         <v>44007</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43916</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43734</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43552</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43461</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43370</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43279</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43188</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43097</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43006</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42915</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42824</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42733</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>684800</v>
+      </c>
+      <c r="E8" s="3">
         <v>462400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>554900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>527000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>521100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>520300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>477100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>436700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>435900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>434300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>389500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>343900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>344000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>307300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>278300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>390200</v>
+      </c>
+      <c r="E9" s="3">
         <v>265700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>318900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>297000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>307300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>302500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>275700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>255700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>257700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>237600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>227100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>201400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>201800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>181800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>163500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E10" s="3">
         <v>196700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>236000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>230000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>213800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>217800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>201400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>181000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>178200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>177700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>165300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>142500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>142200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>114800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1045,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1051,8 +1071,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1060,29 +1080,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5400</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E17" s="3">
         <v>440200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>508300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>484900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>489700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>474400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>437300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>413400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>401600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>397000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>366400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>357100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>315300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>315400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>284600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>260000</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E18" s="3">
         <v>22200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>28600</v>
       </c>
       <c r="P18" s="3">
         <v>28600</v>
       </c>
       <c r="Q18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="R18" s="3">
         <v>22700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18300</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,11 +1334,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1329,223 +1363,238 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E21" s="3">
         <v>44400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>63600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>56900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>49300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>48000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>42800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>37800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26600</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5400</v>
       </c>
       <c r="R22" s="3">
         <v>5400</v>
       </c>
       <c r="S22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E23" s="3">
         <v>19800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>25300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E26" s="3">
         <v>32000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16700</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E27" s="3">
         <v>32000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16700</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1779,23 +1840,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>600</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>600</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>17800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,11 +2006,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1965,64 +2035,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E33" s="3">
         <v>32000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16700</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E35" s="3">
         <v>32000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16700</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44098</v>
+      </c>
+      <c r="E38" s="2">
         <v>44007</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43916</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43734</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43552</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43461</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43370</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43279</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43188</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43097</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43006</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42915</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42824</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42733</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,40 +2313,41 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E41" s="3">
         <v>134400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>289900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
@@ -2269,19 +2356,22 @@
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E43" s="3">
         <v>82100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>71900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>66500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>598500</v>
+      </c>
+      <c r="E44" s="3">
         <v>594300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>588900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>581900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>484000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>446400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>437500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>471000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>403800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>432400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>426700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>428000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>395600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>367500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>316500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>293700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E45" s="3">
         <v>19200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E46" s="3">
         <v>830000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>951000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>701500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>643700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>564000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>527400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>559500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>486800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>502300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>486400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>503200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>456300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>416100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>359900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>336200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1396900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1354900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1338600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1278500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1169000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1102700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>998000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>328400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>271500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>245400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>221000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>183600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>163800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>150500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,7 +2777,7 @@
         <v>336700</v>
       </c>
       <c r="G49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="H49" s="3">
         <v>336800</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2714400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2528700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2633900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2324300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2156900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2011100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1873400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1234100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1131900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1118400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1075900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1068000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>944200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>868400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>831200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,78 +3141,82 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>362500</v>
+      </c>
+      <c r="E57" s="3">
         <v>326000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>319800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>368500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>318400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>272700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>229500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>313500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>265000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>255000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>258700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>249200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>243600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>205900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>158500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>3500</v>
@@ -3115,222 +3249,237 @@
         <v>3500</v>
       </c>
       <c r="S58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>253700</v>
+      </c>
+      <c r="E59" s="3">
         <v>205100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>184900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>184100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>174100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>148400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>165400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>87300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>97100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>75300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>83800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>618900</v>
+      </c>
+      <c r="E60" s="3">
         <v>533700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>506500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>552500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>492400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>424600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>398300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>404300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>324200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>335300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>331100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>359300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>344200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>322400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>293200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>243700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E61" s="3">
         <v>207000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>413300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>142600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>143300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>140500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>143300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>141800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>142500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>156800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>169800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>185600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>183900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>178300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>351200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>387200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>957200</v>
+      </c>
+      <c r="E62" s="3">
         <v>937600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>904800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>864800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>798100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>775100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>711800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>103700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>91600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>77800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>65900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1782900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1678200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1824600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1560000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1433800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1340200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1253400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>649800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>568200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>583700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>588300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>625100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>612800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>583100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>722200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>696900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>531900</v>
+      </c>
+      <c r="E72" s="3">
         <v>463100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>431100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>394000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>358700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>317700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>274100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>243600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>225700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>199100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>159200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>119600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>71600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>931500</v>
+      </c>
+      <c r="E76" s="3">
         <v>850500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>809300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>764300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>723000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>670900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>620000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>584300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>563700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>534700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>487600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>442900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>388200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>361100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>146100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>134300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44098</v>
+      </c>
+      <c r="E80" s="2">
         <v>44007</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43916</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43734</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43552</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43461</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43370</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43279</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43188</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43097</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43006</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42915</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42824</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42733</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E81" s="3">
         <v>32000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16700</v>
       </c>
-      <c r="S81" s="3" t="s">
+      <c r="T81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E83" s="3">
         <v>22300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8300</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E89" s="3">
         <v>72000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>95100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18500</v>
       </c>
-      <c r="S89" s="3" t="s">
+      <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-62800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22400</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22400</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-199900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>276600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3" t="s">
+      <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,35 +5416,38 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-155500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>262900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5206,18 +5458,21 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44098</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44007</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43734</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43552</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43461</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43370</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43279</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43188</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43097</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43006</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42915</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42824</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42733</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>723700</v>
+      </c>
+      <c r="E8" s="3">
         <v>684800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>462400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>554900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>527000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>521100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>520300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>477100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>436700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>435900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>434300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>389500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>343900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>344000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>307300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>278300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>416100</v>
+      </c>
+      <c r="E9" s="3">
         <v>390200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>265700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>318900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>297000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>307300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>302500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>275700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>255700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>257700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>256600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>237600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>227100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>201400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>201800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>181800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>163500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E10" s="3">
         <v>294600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>196700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>236000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>230000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>213800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>217800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>201400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>177700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>165300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>162400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>142500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>114800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1074,8 +1093,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1083,29 +1102,32 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>5400</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>655600</v>
+      </c>
+      <c r="E17" s="3">
         <v>606000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>440200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>508300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>484900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>489700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>474400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>437300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>413400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>401600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>397000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>366400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>357100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>315300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>315400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>284600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>260000</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E18" s="3">
         <v>78800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>28600</v>
       </c>
       <c r="Q18" s="3">
         <v>28600</v>
       </c>
       <c r="R18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="S18" s="3">
         <v>22700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18300</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,11 +1370,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1366,235 +1399,250 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E21" s="3">
         <v>101700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>62800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>63600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>56900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>49300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>48000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26600</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5400</v>
       </c>
       <c r="S22" s="3">
         <v>5400</v>
       </c>
       <c r="T22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E23" s="3">
         <v>76800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E26" s="3">
         <v>68800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16700</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E27" s="3">
         <v>68800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16700</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1891,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1843,23 +1903,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>600</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>600</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>17800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2009,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2038,67 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E33" s="3">
         <v>68800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16700</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E35" s="3">
         <v>68800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16700</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44098</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44007</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43734</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43552</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43461</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43370</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43279</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43188</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43097</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43006</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42915</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42824</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42733</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,43 +2399,44 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>307800</v>
+      </c>
+      <c r="E41" s="3">
         <v>271100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>289900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
@@ -2359,19 +2445,22 @@
         <v>600</v>
       </c>
       <c r="Q41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
       <c r="S41" s="3">
+        <v>400</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E43" s="3">
         <v>81000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>71900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>654000</v>
+      </c>
+      <c r="E44" s="3">
         <v>598500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>594300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>588900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>581900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>484000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>446400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>437500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>471000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>403800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>432400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>426700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>428000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>395600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>367500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>316500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>293700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1040500</v>
+      </c>
+      <c r="E46" s="3">
         <v>974000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>830000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>951000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>701500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>643700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>564000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>527400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>559500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>486800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>502300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>486400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>503200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>456300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>416100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>359900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>336200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2810,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1495700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1396900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1354900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1338600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1278500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1169000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1102700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>998000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>328400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>271500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>245400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>221000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>183600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>163800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>150500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2780,7 +2890,7 @@
         <v>336700</v>
       </c>
       <c r="H49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="I49" s="3">
         <v>336800</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2880400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2714400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2528700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2633900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2324300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2156900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2011100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1873400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1234100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1131900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1118400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1075900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1068000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>944200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>868400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>831200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,84 +3271,88 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>417900</v>
+      </c>
+      <c r="E57" s="3">
         <v>362500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>326000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>319800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>368500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>318400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>272700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>229500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>313500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>237800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>265000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>255000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>258700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>249200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>243600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>205900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>158500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>3500</v>
@@ -3252,234 +3385,249 @@
         <v>3500</v>
       </c>
       <c r="T58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>279300</v>
+      </c>
+      <c r="E59" s="3">
         <v>253700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>205100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>184900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>184100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>174100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>148400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>165400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>87300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>82900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>97100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>75300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>83800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>698800</v>
+      </c>
+      <c r="E60" s="3">
         <v>618900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>533700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>506500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>552500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>492400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>424600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>398300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>404300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>324200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>335300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>331100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>359300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>344200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>322400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>293200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>243700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E61" s="3">
         <v>206800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>207000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>413300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>142600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>143300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>140500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>141800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>142500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>156800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>169800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>185600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>183900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>178300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>351200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>387200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>977000</v>
+      </c>
+      <c r="E62" s="3">
         <v>957200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>937600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>904800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>864800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>798100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>775100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>711800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>103700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>91600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>77800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>65900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1782900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1678200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1824600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1560000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1433800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1340200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1253400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>649800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>568200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>583700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>588300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>625100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>612800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>583100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>722200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>696900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E72" s="3">
         <v>531900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>463100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>431100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>394000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>358700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>317700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>274100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>243600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>225700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>199100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>159200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>119600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>71600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>997400</v>
+      </c>
+      <c r="E76" s="3">
         <v>931500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>850500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>809300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>764300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>723000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>670900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>620000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>584300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>563700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>534700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>487600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>442900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>388200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>361100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>146100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>134300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44098</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44007</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43734</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43552</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43461</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43370</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43279</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43188</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43097</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43006</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42915</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42824</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42733</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E81" s="3">
         <v>68800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16700</v>
       </c>
-      <c r="T81" s="3" t="s">
+      <c r="U81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E83" s="3">
         <v>22900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8300</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E89" s="3">
         <v>173000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>72000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>95100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18500</v>
       </c>
-      <c r="T89" s="3" t="s">
+      <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-62800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22400</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-62800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22400</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-199900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>276600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-36300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3" t="s">
+      <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,38 +5667,41 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E102" s="3">
         <v>136700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-155500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>262900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-57100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5461,18 +5712,21 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44098</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44007</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43734</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43552</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43461</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43370</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43279</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43188</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43097</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43006</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42915</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42824</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42733</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>782500</v>
+      </c>
+      <c r="E8" s="3">
         <v>723700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>684800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>462400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>554900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>527000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>521100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>520300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>477100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>436700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>435900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>434300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>389500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>343900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>344000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>307300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>278300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>445600</v>
+      </c>
+      <c r="E9" s="3">
         <v>416100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>390200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>265700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>318900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>297000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>307300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>302500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>275700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>255700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>257700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>237600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>201400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>201800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>181800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>163500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E10" s="3">
         <v>307600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>294600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>196700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>236000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>230000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>213800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>217800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>201400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>177700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>165300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>162400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>142200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>114800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,28 +1084,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1096,8 +1116,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1105,29 +1125,32 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>5400</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>686600</v>
+      </c>
+      <c r="E17" s="3">
         <v>655600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>606000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>440200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>508300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>484900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>489700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>474400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>437300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>413400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>401600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>397000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>366400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>357100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>315300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>315400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>284600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>260000</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E18" s="3">
         <v>68100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>28600</v>
       </c>
       <c r="R18" s="3">
         <v>28600</v>
       </c>
       <c r="S18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="T18" s="3">
         <v>22700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18300</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1373,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1402,247 +1436,262 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E21" s="3">
         <v>92400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>62800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>49800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>63600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>56900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>49300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>48000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26600</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5400</v>
       </c>
       <c r="T22" s="3">
         <v>5400</v>
       </c>
       <c r="U22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E23" s="3">
         <v>65800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>76800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>40400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E26" s="3">
         <v>57100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>68800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16700</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E27" s="3">
         <v>57100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>68800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16700</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,11 +1955,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1906,23 +1967,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>600</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>600</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>17800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2081,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2110,70 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E33" s="3">
         <v>57100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>68800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16700</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E35" s="3">
         <v>57100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>68800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16700</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="V35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44098</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44007</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43734</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43552</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43461</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43370</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43279</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43188</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43097</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43006</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42915</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42824</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42733</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,46 +2486,47 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>354100</v>
+      </c>
+      <c r="E41" s="3">
         <v>307800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>271100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>289900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>500</v>
       </c>
       <c r="O41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
@@ -2448,19 +2535,22 @@
         <v>600</v>
       </c>
       <c r="R41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>400</v>
       </c>
       <c r="T41" s="3">
+        <v>400</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E43" s="3">
         <v>50400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>81000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>40600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>33400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>607600</v>
+      </c>
+      <c r="E44" s="3">
         <v>654000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>598500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>594300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>588900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>581900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>484000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>446400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>437500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>471000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>403800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>432400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>426700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>428000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>395600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>367500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>316500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>293700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E45" s="3">
         <v>28300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1061900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1040500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>974000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>830000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>951000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>701500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>643700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>564000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>527400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>559500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>486800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>502300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>486400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>503200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>456300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>416100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>359900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>336200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1558800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1495700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1396900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1354900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1338600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1278500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1169000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1102700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>998000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>328400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>271500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>245400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>221000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>183600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>163800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>150500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2893,7 +3004,7 @@
         <v>336700</v>
       </c>
       <c r="I49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="J49" s="3">
         <v>336800</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2964700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2880400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2714400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2528700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2633900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2324300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2156900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2011100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1873400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1234100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1131900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1118400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1075900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>944200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>868400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>831200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,90 +3402,94 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>402100</v>
+      </c>
+      <c r="E57" s="3">
         <v>417900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>362500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>326000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>319800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>368500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>318400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>272700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>229500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>313500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>237800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>265000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>255000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>258700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>249200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>243600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>205900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>158500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>3500</v>
@@ -3388,246 +3522,261 @@
         <v>3500</v>
       </c>
       <c r="U58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>268700</v>
+      </c>
+      <c r="E59" s="3">
         <v>279300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>253700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>205100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>184900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>184100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>174100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>148400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>165400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>87300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>82900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>97100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>91500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>75300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>83800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E60" s="3">
         <v>698800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>618900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>533700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>506500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>552500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>492400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>424600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>398300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>404300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>324200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>335300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>331100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>359300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>344200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>322400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>293200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>243700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E61" s="3">
         <v>207200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>206800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>207000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>413300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>142600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>143300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>140500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>143300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>141800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>142500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>156800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>169800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>185600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>183900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>178300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>351200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>387200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="E62" s="3">
         <v>977000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>957200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>937600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>904800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>864800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>798100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>775100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>711800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>101500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>91600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>77800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>65900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1884000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1883000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1782900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1678200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1824600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1560000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1433800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1340200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1253400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>649800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>568200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>583700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>588300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>625100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>612800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>583100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>722200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>696900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>664800</v>
+      </c>
+      <c r="E72" s="3">
         <v>589000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>531900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>463100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>431100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>394000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>358700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>317700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>274100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>243600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>225700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>199100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>159200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>119600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>71600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1080700</v>
+      </c>
+      <c r="E76" s="3">
         <v>997400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>931500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>850500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>809300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>764300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>723000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>670900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>620000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>584300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>563700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>534700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>442900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>388200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>361100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>146100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>134300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44098</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44007</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43734</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43552</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43461</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43370</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43279</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43188</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43097</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43006</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42915</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42824</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42733</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E81" s="3">
         <v>57100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>68800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16700</v>
       </c>
-      <c r="U81" s="3" t="s">
+      <c r="V81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E83" s="3">
         <v>24400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8300</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E89" s="3">
         <v>136500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>173000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>72000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>95100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>59800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18500</v>
       </c>
-      <c r="U89" s="3" t="s">
+      <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-62800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22400</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-62800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22400</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-199900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>276600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-36300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,41 +5919,44 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E102" s="3">
         <v>36600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>136700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-155500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>262900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-57100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5715,18 +5967,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E7" s="2">
         <v>44287</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44098</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44007</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43734</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43552</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43461</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43370</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43279</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43188</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43097</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43006</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42915</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42824</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42733</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>860100</v>
+      </c>
+      <c r="E8" s="3">
         <v>782500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>723700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>684800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>462400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>554900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>527000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>521100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>520300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>477100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>436700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>435900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>434300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>389500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>343900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>344000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>307300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>278300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>494700</v>
+      </c>
+      <c r="E9" s="3">
         <v>445600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>416100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>390200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>265700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>318900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>297000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>307300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>302500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>275700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>255700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>257700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>237600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>201400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>201800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>181800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>163500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E10" s="3">
         <v>336900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>307600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>294600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>196700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>236000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>230000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>213800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>217800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>201400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>178200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>177700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>165300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>142500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>142200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>125500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>114800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,31 +1103,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1119,8 +1138,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1128,29 +1147,32 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>5400</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E17" s="3">
         <v>686600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>655600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>606000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>440200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>508300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>484900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>489700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>474400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>437300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>413400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>401600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>397000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>366400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>357100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>315300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>315400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>284600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>260000</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E18" s="3">
         <v>95900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>28600</v>
       </c>
       <c r="S18" s="3">
         <v>28600</v>
       </c>
       <c r="T18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="U18" s="3">
         <v>22700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18300</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1412,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1410,11 +1443,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1439,259 +1472,274 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E21" s="3">
         <v>122400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>92400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>101700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>62800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>49800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>63600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>56900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>49300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>48000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>37800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26600</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5400</v>
       </c>
       <c r="U22" s="3">
         <v>5400</v>
       </c>
       <c r="V22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E23" s="3">
         <v>94600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E24" s="3">
         <v>18800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E26" s="3">
         <v>75800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>68800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16700</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E27" s="3">
         <v>75800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>68800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16700</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,11 +2018,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1970,23 +2030,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>600</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>600</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>17800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2190,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2154,11 +2223,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2183,73 +2252,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E33" s="3">
         <v>75800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>68800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16700</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E35" s="3">
         <v>75800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>68800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16700</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E38" s="2">
         <v>44287</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44098</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44007</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43734</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43552</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43461</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43370</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43279</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43188</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43097</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43006</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42915</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42824</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42733</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,49 +2572,50 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>366100</v>
+      </c>
+      <c r="E41" s="3">
         <v>354100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>307800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>271100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>289900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>500</v>
       </c>
       <c r="P41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>600</v>
@@ -2538,19 +2624,22 @@
         <v>600</v>
       </c>
       <c r="S41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
       <c r="U41" s="3">
+        <v>400</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2700,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E43" s="3">
         <v>60000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>48000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>40600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>33400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>34500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>683800</v>
+      </c>
+      <c r="E44" s="3">
         <v>607600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>654000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>598500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>594300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>588900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>581900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>484000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>446400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>437500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>471000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>403800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>432400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>426700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>428000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>395600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>367500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>316500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>293700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E45" s="3">
         <v>40200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1165400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1061900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1040500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>974000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>830000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>951000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>701500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>643700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>564000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>527400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>559500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>486800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>502300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>486400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>503200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>456300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>416100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>359900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>336200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,75 +3025,81 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1782400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1558800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1495700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1396900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1354900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1338600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1278500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1169000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1102700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>998000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>328400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>271500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>245400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>221000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>200400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>183600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>163800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>150500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>336700</v>
+        <v>408900</v>
       </c>
       <c r="E49" s="3">
         <v>336700</v>
@@ -3007,7 +3117,7 @@
         <v>336700</v>
       </c>
       <c r="J49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="K49" s="3">
         <v>336800</v>
@@ -3045,8 +3155,11 @@
       <c r="V49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3364300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2964700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2880400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2714400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2528700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2633900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2324300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2156900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2011100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1873400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1234100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1131900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1118400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1075900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1068000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>944200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>868400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>831200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,96 +3532,100 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>529200</v>
+      </c>
+      <c r="E57" s="3">
         <v>402100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>417900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>362500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>326000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>319800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>368500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>318400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>272700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>229500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>313500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>237800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>265000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>255000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>258700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>249200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>243600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>205900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>158500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>3500</v>
@@ -3525,258 +3658,273 @@
         <v>3500</v>
       </c>
       <c r="V58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>325500</v>
+      </c>
+      <c r="E59" s="3">
         <v>268700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>279300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>253700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>205100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>184900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>184100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>174100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>165400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>87300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>82900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>66800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>97100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>75300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>83800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>860200</v>
+      </c>
+      <c r="E60" s="3">
         <v>673000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>698800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>618900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>533700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>506500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>552500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>492400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>424600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>398300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>404300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>324200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>335300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>331100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>359300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>344200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>322400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>293200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>243700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E61" s="3">
         <v>195500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>207200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>206800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>207000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>413300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>142600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>140500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>143300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>141800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>142500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>156800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>169800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>185600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>183900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>178300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>351200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>387200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1015500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>977000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>957200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>937600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>904800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>864800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>798100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>775100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>711800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>101500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>91600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>80300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>77800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>65900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2184700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1884000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1883000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1782900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1678200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1824600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1560000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1433800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1340200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1253400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>649800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>568200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>583700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>588300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>625100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>612800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>583100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>722200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>696900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>747700</v>
+      </c>
+      <c r="E72" s="3">
         <v>664800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>589000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>531900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>463100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>431100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>394000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>358700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>317700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>274100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>243600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>225700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>199100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>159200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>119600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>71600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1179600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1080700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>997400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>931500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>850500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>809300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>764300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>723000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>670900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>620000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>584300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>563700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>534700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>487600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>442900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>388200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>361100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>146100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>134300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E80" s="2">
         <v>44287</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44098</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44007</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43734</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43552</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43461</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43370</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43279</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43188</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43097</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43006</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42915</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42824</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42733</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E81" s="3">
         <v>75800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>68800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16700</v>
       </c>
-      <c r="V81" s="3" t="s">
+      <c r="W81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E83" s="3">
         <v>26400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8300</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E89" s="3">
         <v>101000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>136500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>173000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>72000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18500</v>
       </c>
-      <c r="V89" s="3" t="s">
+      <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-102800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-43700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22400</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-149600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-62800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22400</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-199900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>276600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-36300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
-      <c r="V100" s="3" t="s">
+      <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,44 +6170,47 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E102" s="3">
         <v>46300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>136700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-155500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>262900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5970,18 +6221,21 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,229 +665,239 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44378</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44287</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44098</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44007</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43734</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43552</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43461</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43370</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43279</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43188</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43097</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43006</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42915</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42824</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42733</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>876600</v>
+      </c>
+      <c r="E8" s="3">
         <v>860100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>782500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>723700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>684800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>462400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>554900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>527000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>521100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>520300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>477100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>436700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>435900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>434300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>402900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>389500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>343900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>344000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>307300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>278300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>511200</v>
+      </c>
+      <c r="E9" s="3">
         <v>494700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>445600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>416100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>390200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>265700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>318900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>297000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>307300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>302500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>275700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>255700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>257700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>237600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>227100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>201400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>201800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>181800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>163500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,64 +905,67 @@
         <v>365400</v>
       </c>
       <c r="E10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="F10" s="3">
         <v>336900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>307600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>294600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>196700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>236000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>230000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>213800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>217800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>201400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>178200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>177700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>165300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>142500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>142200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>125500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>114800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,34 +1123,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1141,8 +1161,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1150,29 +1170,32 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>5400</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>793200</v>
+      </c>
+      <c r="E17" s="3">
         <v>763300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>686600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>655600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>606000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>440200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>508300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>484900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>489700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>474400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>437300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>413400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>401600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>397000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>366400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>357100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>315300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>315400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>284600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>260000</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E18" s="3">
         <v>96800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>28600</v>
       </c>
       <c r="T18" s="3">
         <v>28600</v>
       </c>
       <c r="U18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="V18" s="3">
         <v>22700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18300</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,17 +1446,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1446,11 +1480,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1475,271 +1509,286 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E21" s="3">
         <v>125400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>122400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>92400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>101700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>62800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>63600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>56900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>47600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>49300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>48000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>37800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>26600</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>5400</v>
       </c>
       <c r="V22" s="3">
         <v>5400</v>
       </c>
       <c r="W22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="X22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E23" s="3">
         <v>97300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>94600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>76800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>14300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-12200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E26" s="3">
         <v>82900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>68800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16700</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E27" s="3">
         <v>82900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>68800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16700</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2021,11 +2082,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2033,23 +2094,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>600</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>600</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>17800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,17 +2260,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2226,11 +2296,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2255,76 +2325,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E33" s="3">
         <v>82900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>68800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16700</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E35" s="3">
         <v>82900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>68800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16700</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="X35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44378</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44287</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44098</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44007</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43734</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43552</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43461</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43370</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43279</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43188</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43097</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43006</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42915</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42824</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42733</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,52 +2659,53 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>330100</v>
+      </c>
+      <c r="E41" s="3">
         <v>366100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>354100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>307800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>271100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>289900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>600</v>
@@ -2627,19 +2714,22 @@
         <v>600</v>
       </c>
       <c r="T41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
       </c>
       <c r="V41" s="3">
+        <v>400</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,268 +2793,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E43" s="3">
         <v>72800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>81000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>82100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>71900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>48000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>40600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>33400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>34500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>833100</v>
+      </c>
+      <c r="E44" s="3">
         <v>683800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>607600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>654000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>598500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>594300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>588900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>581900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>484000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>446400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>437500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>471000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>403800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>432400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>426700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>428000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>395600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>367500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>316500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>293700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E45" s="3">
         <v>42700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1294200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1165400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1061900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1040500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>974000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>830000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>951000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>701500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>643700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>564000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>527400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>559500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>486800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>502300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>486400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>503200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>456300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>416100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>359900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>336200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,81 +3133,87 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1918300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1782400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1558800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1495700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1396900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1354900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1338600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1278500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1169000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1102700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>998000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>328400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>271500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>245400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>221000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>200400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>183600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>163800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>150500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>408200</v>
+      </c>
+      <c r="E49" s="3">
         <v>408900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>336700</v>
       </c>
       <c r="F49" s="3">
         <v>336700</v>
@@ -3120,7 +3231,7 @@
         <v>336700</v>
       </c>
       <c r="K49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="L49" s="3">
         <v>336800</v>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3628100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3364300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2964700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2880400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2714400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2528700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2633900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2324300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2156900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2011100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1873400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1234100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1131900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1118400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1075900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1068000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>944200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>868400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>831200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,102 +3663,106 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>634300</v>
+      </c>
+      <c r="E57" s="3">
         <v>529200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>402100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>417900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>362500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>326000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>319800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>368500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>318400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>272700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>229500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>313500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>237800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>265000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>255000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>258700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>249200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>243600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>205900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>158500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>3500</v>
@@ -3661,270 +3795,285 @@
         <v>3500</v>
       </c>
       <c r="W58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>376100</v>
+      </c>
+      <c r="E59" s="3">
         <v>325500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>268700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>279300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>253700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>205100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>184900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>184100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>174100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>165400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>87300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>82900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>66800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>97100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>75300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>83800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>81700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="E60" s="3">
         <v>860200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>673000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>698800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>618900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>533700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>506500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>552500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>492400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>424600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>398300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>404300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>324200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>335300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>331100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>359300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>344200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>322400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>293200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>243700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E61" s="3">
         <v>195400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>207200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>206800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>207000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>413300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>142600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>143300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>140500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>143300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>141800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>142500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>156800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>169800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>185600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>183900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>178300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>351200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>387200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1155300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1129000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1015500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>977000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>957200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>937600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>904800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>864800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>798100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>775100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>711800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>101500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>91600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>80300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>77800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>65900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2363200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2184700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1884000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1883000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1782900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1678200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1824600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1560000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1433800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1340200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1253400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>649800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>568200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>583700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>588300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>625100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>612800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>583100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>722200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>696900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>822400</v>
+      </c>
+      <c r="E72" s="3">
         <v>747700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>664800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>589000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>531900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>463100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>431100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>394000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>358700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>317700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>274100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>243600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>225700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>199100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>159200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>119600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>71600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>48300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1264900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1179600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1080700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>997400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>931500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>850500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>809300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>764300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>723000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>670900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>620000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>584300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>563700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>534700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>487600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>442900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>388200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>361100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>146100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>134300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44378</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44287</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44098</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44007</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43734</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43552</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43461</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43370</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43279</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43188</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43097</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43006</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42915</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42824</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42733</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E81" s="3">
         <v>82900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>68800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16700</v>
       </c>
-      <c r="W81" s="3" t="s">
+      <c r="X81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E83" s="3">
         <v>27700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8300</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E89" s="3">
         <v>155600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>101000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>136500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>173000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>72000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>56100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18500</v>
       </c>
-      <c r="W89" s="3" t="s">
+      <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-86200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-102800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22400</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-149600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-102800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-55000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-62800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22400</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-199900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>276600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="W100" s="3" t="s">
+      <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,47 +6422,50 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E102" s="3">
         <v>12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>36600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>136700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-155500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>262900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-57100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6224,18 +6476,21 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44560</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44378</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44287</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44098</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44007</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43734</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43552</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43461</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43370</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43279</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43188</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43097</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43006</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42915</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42824</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42733</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>914300</v>
+      </c>
+      <c r="E8" s="3">
         <v>876600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>860100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>782500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>723700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>684800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>462400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>554900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>527000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>521100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>520300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>477100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>436700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>435900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>434300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>402900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>389500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>343900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>344000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>307300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>278300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>559700</v>
+      </c>
+      <c r="E9" s="3">
         <v>511200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>494700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>445600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>416100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>390200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>265700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>318900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>297000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>307300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>302500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>275700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>255700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>257700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>237600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>201400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>201800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>181800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>163500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>365400</v>
+        <v>354600</v>
       </c>
       <c r="E10" s="3">
         <v>365400</v>
       </c>
       <c r="F10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="G10" s="3">
         <v>336900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>307600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>294600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>196700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>236000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>213800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>217800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>201400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>181000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>178200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>177700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>165300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>142500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>142200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>125500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>114800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,28 +1154,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1164,8 +1183,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1173,29 +1192,32 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>5400</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>853200</v>
+      </c>
+      <c r="E17" s="3">
         <v>793200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>763300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>686600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>655600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>606000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>440200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>508300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>484900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>489700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>474400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>437300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>413400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>401600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>397000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>366400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>357100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>315300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>315400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>284600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>260000</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E18" s="3">
         <v>83400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>37300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>36500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>28600</v>
       </c>
       <c r="U18" s="3">
         <v>28600</v>
       </c>
       <c r="V18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="W18" s="3">
         <v>22700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18300</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,11 +1489,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1483,11 +1516,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1512,79 +1545,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E21" s="3">
         <v>113800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>122400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>92400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>101700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>62800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>49800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>63600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>56900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>47600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>48000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>37800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26600</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,203 +1631,212 @@
         <v>1100</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>5400</v>
       </c>
       <c r="W22" s="3">
         <v>5400</v>
       </c>
       <c r="X22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E23" s="3">
         <v>82300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>94600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>76800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E26" s="3">
         <v>74600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>75800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>68800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16700</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E27" s="3">
         <v>74600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>68800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16700</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2085,11 +2145,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2097,23 +2157,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>600</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>600</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>17800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2272,11 +2341,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2299,11 +2368,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2328,79 +2397,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E33" s="3">
         <v>74600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>68800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16700</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E35" s="3">
         <v>74600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>68800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16700</v>
       </c>
-      <c r="X35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44560</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44378</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44287</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44098</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44007</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43734</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43552</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43461</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43370</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43279</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43188</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43097</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43006</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42915</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42824</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42733</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,55 +2745,56 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E41" s="3">
         <v>330100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>366100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>354100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>307800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>271100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>289900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
@@ -2717,19 +2803,22 @@
         <v>600</v>
       </c>
       <c r="U41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
       </c>
       <c r="W41" s="3">
+        <v>400</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,280 +2885,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E43" s="3">
         <v>81500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>81000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>82100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>66100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>71900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>48000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>40600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>33400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>34500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1008200</v>
+      </c>
+      <c r="E44" s="3">
         <v>833100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>683800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>607600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>654000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>598500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>594300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>588900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>581900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>484000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>446400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>437500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>471000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>403800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>432400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>426700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>428000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>395600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>367500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>316500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>293700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E45" s="3">
         <v>49500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1273300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1294200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1165400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1061900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1040500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>974000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>830000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>951000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>701500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>643700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>564000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>527400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>559500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>486800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>502300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>486400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>503200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>456300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>416100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>359900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>336200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,87 +3240,93 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2032800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1918300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1782400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1558800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1495700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1396900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1354900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1338600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1278500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1169000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1102700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>998000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>328400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>271500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>245400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>221000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>200400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>183600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>163800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>150500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E49" s="3">
         <v>408200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>408900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>336700</v>
       </c>
       <c r="G49" s="3">
         <v>336700</v>
@@ -3234,7 +3344,7 @@
         <v>336700</v>
       </c>
       <c r="L49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="M49" s="3">
         <v>336800</v>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3730700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3628100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3364300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2964700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2880400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2714400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2528700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2633900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2324300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2156900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2011100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1873400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1234100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1131900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1118400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1075900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1068000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>944200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>868400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>831200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,108 +3793,112 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>661900</v>
+      </c>
+      <c r="E57" s="3">
         <v>634300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>529200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>402100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>417900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>362500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>326000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>319800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>368500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>318400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>272700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>229500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>313500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>237800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>265000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>255000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>258700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>249200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>243600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>205900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>158500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>3500</v>
@@ -3798,282 +3931,297 @@
         <v>3500</v>
       </c>
       <c r="X58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E59" s="3">
         <v>376100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>325500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>268700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>279300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>253700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>205100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>184900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>184100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>174100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>165400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>87300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>82900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>72600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>97100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>75300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>83800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>81700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1012000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>860200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>673000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>698800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>618900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>533700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>506500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>552500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>492400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>424600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>398300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>404300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>324200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>335300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>331100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>359300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>344200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>322400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>293200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>243700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E61" s="3">
         <v>195900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>207200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>206800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>207000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>413300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>142600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>143300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>140500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>143300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>141800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>142500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>156800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>169800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>185600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>183900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>178300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>351200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>387200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1179700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1155300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1129000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1015500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>977000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>957200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>937600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>904800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>864800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>798100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>775100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>711800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>101500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>91600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>80300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>77800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>65900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2407500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2363200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2184700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1884000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1883000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1782900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1678200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1824600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1560000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1433800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1340200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1253400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>649800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>568200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>583700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>588300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>625100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>612800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>583100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>722200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>696900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>872200</v>
+      </c>
+      <c r="E72" s="3">
         <v>822400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>747700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>664800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>589000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>531900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>463100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>431100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>394000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>358700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>317700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>274100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>243600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>225700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>199100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>159200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>119600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>71600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1323200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1264900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1179600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1080700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>997400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>931500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>850500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>809300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>764300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>723000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>670900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>620000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>584300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>563700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>534700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>487600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>442900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>388200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>361100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>146100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>134300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44560</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44378</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44287</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44098</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44007</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43734</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43552</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43461</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43370</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43279</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43188</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43097</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43006</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42915</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42824</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42733</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E81" s="3">
         <v>74600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>68800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16700</v>
       </c>
-      <c r="X81" s="3" t="s">
+      <c r="Y81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E83" s="3">
         <v>30400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8300</v>
       </c>
-      <c r="X83" s="3" t="s">
+      <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E89" s="3">
         <v>108300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>155600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>101000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>136500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>173000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>72000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18500</v>
       </c>
-      <c r="X89" s="3" t="s">
+      <c r="Y89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-145600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-86200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-45900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-102800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22400</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-145800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-149600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-102800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-62800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22400</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-199900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>276600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>15300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-36300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
-      <c r="X100" s="3" t="s">
+      <c r="Y100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,50 +6673,53 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-190600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>36600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>136700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-155500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>262900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6479,18 +6730,21 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44560</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44378</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44287</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44098</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44007</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43734</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43552</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43461</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43370</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43279</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43188</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43097</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43006</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42915</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42824</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42733</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1028700</v>
+      </c>
+      <c r="E8" s="3">
         <v>914300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>876600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>860100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>782500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>723700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>684800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>462400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>554900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>527000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>521100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>520300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>477100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>436700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>435900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>434300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>402900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>389500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>343900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>344000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>307300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>278300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>620700</v>
+      </c>
+      <c r="E9" s="3">
         <v>559700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>511200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>494700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>445600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>416100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>390200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>265700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>318900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>297000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>307300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>302500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>275700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>255700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>257700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>237600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>201400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>201800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>181800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>163500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E10" s="3">
         <v>354600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>365400</v>
       </c>
       <c r="F10" s="3">
         <v>365400</v>
       </c>
       <c r="G10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="H10" s="3">
         <v>336900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>307600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>294600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>196700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>236000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>213800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>217800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>201400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>181000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>178200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>177700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>165300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>162400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>142500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>142200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>125500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>114800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,40 +1162,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1186,8 +1206,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1195,29 +1215,32 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>5400</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>934800</v>
+      </c>
+      <c r="E17" s="3">
         <v>853200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>793200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>763300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>686600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>655600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>606000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>440200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>508300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>484900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>489700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>474400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>437300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>413400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>401600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>397000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>366400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>357100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>315300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>315400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>284600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>260000</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E18" s="3">
         <v>61100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>83400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>37300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>36500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>28600</v>
       </c>
       <c r="V18" s="3">
         <v>28600</v>
       </c>
       <c r="W18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="X18" s="3">
         <v>22700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>18300</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1513,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1492,11 +1526,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1519,11 +1553,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1548,295 +1582,310 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E21" s="3">
         <v>94800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>113800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>122400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>92400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>101700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>62800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>49800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>63600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>56900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>47600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>49300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>37800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26600</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>5400</v>
       </c>
       <c r="X22" s="3">
         <v>5400</v>
       </c>
       <c r="Y22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E23" s="3">
         <v>60000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>97300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>94600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>76800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E24" s="3">
         <v>10100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E26" s="3">
         <v>49900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>74600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>75800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>68800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16700</v>
       </c>
-      <c r="Y26" s="3" t="s">
+      <c r="Z26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E27" s="3">
         <v>49900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>74600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>57100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>68800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16700</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Z27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,40 +2177,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2160,23 +2221,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>600</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>600</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>17800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,8 +2399,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2344,11 +2414,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2371,11 +2441,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2400,82 +2470,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E33" s="3">
         <v>49900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>68800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16700</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E35" s="3">
         <v>49900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>68800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16700</v>
       </c>
-      <c r="Y35" s="3" t="s">
+      <c r="Z35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44560</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44378</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44287</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44098</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44007</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43734</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43552</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43461</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43370</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43279</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43188</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43097</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43006</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42915</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42824</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42733</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,58 +2832,59 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>139400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>330100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>366100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>354100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>307800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>271100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>289900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>51500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
       <c r="S41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>600</v>
@@ -2806,19 +2893,22 @@
         <v>600</v>
       </c>
       <c r="V41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,292 +2978,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E43" s="3">
         <v>85000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>81500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>60000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>81000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>71900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>48000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>52600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>40600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>33400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>34500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1149500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1008200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>833100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>683800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>607600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>654000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>598500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>594300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>588900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>581900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>484000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>446400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>437500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>471000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>403800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>432400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>426700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>428000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>395600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>367500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>316500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>293700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E45" s="3">
         <v>40800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1322500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1273300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1294200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1165400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1061900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1040500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>974000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>830000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>951000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>701500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>643700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>564000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>527400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>559500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>486800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>502300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>486400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>503200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>456300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>416100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>359900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>336200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,93 +3348,99 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2144500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2032800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1918300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1782400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1558800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1495700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1396900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1354900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1338600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1278500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1169000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1102700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>998000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>328400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>271500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>245400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>221000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>200400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>183600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>163800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>150500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>407300</v>
+      </c>
+      <c r="E49" s="3">
         <v>407400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>408200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>408900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>336700</v>
       </c>
       <c r="H49" s="3">
         <v>336700</v>
@@ -3347,7 +3458,7 @@
         <v>336700</v>
       </c>
       <c r="M49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="N49" s="3">
         <v>336800</v>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E52" s="3">
         <v>17100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3893400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3730700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3628100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3364300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2964700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2880400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2714400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2528700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2633900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2324300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2156900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2011100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1873400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1234100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1131900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1118400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1075900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1068000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>944200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>868400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>831200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,114 +3924,118 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>688500</v>
+      </c>
+      <c r="E57" s="3">
         <v>661900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>634300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>529200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>402100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>417900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>362500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>326000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>319800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>368500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>318400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>272700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>229500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>313500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>237800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>265000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>255000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>258700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>249200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>243600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>205900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>158500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>3500</v>
@@ -3934,294 +4068,309 @@
         <v>3500</v>
       </c>
       <c r="Y58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>403300</v>
+      </c>
+      <c r="E59" s="3">
         <v>368000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>376100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>325500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>268700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>279300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>253700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>205100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>184900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>184100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>174100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>165400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>87300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>82900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>72600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>97100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>91500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>75300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>83800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>81700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1032000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1012000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>860200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>673000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>698800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>618900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>533700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>506500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>552500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>492400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>424600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>398300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>404300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>324200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>335300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>331100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>359300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>344200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>322400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>293200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>243700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E61" s="3">
         <v>195800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>195500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>207200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>206800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>207000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>413300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>142600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>143300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>140500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>143300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>141800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>142500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>156800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>169800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>185600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>183900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>178300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>351200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>387200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1179700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1155300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1129000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1015500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>977000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>957200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>937600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>904800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>864800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>798100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>775100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>711800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>101500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>91600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>87400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>80300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>77800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>65900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2491000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2407500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2363200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2184700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1884000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1883000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1782900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1678200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1824600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1560000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1433800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1340200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1253400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>649800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>568200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>583700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>588300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>625100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>612800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>583100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>722200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>696900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>943200</v>
+      </c>
+      <c r="E72" s="3">
         <v>872200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>822400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>747700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>664800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>589000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>531900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>463100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>431100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>394000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>358700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>317700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>274100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>243600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>225700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>199100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>159200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>119600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>71600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1402400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1323200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1264900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1179600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1080700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>997400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>931500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>850500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>809300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>764300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>723000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>670900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>620000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>584300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>563700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>534700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>487600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>442900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>388200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>361100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>146100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>134300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44560</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44378</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44287</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44098</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44007</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43734</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43552</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43461</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43370</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43279</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43188</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43097</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43006</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42915</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42824</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42733</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E81" s="3">
         <v>49900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>68800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16700</v>
       </c>
-      <c r="Y81" s="3" t="s">
+      <c r="Z81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E83" s="3">
         <v>33700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8300</v>
       </c>
-      <c r="Y83" s="3" t="s">
+      <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-63600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>108300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>155600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>101000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>136500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>173000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>59800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>43300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>56100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18500</v>
       </c>
-      <c r="Y89" s="3" t="s">
+      <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-130000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-145600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-86200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-102800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-130000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-145800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-149600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-102800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-62800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y94" s="3" t="s">
+      <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-199900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>276600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-36300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4000</v>
       </c>
-      <c r="Y100" s="3" t="s">
+      <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,53 +6925,56 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-190600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>36600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>136700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-155500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>262900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6733,18 +6985,21 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44560</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44378</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44287</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44098</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44007</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43734</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43552</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43461</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43370</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43279</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43188</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43097</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43006</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42915</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42824</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42733</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1089800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1028700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>914300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>876600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>860100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>782500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>723700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>684800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>462400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>554900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>527000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>521100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>520300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>477100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>436700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>435900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>434300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>402900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>389500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>343900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>344000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>307300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>278300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>653600</v>
+      </c>
+      <c r="E9" s="3">
         <v>620700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>559700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>511200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>494700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>445600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>416100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>390200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>265700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>318900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>297000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>307300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>302500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>275700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>255700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>257700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>237600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>201400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>201800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>181800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>163500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E10" s="3">
         <v>408000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>354600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>365400</v>
       </c>
       <c r="G10" s="3">
         <v>365400</v>
       </c>
       <c r="H10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="I10" s="3">
         <v>336900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>307600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>294600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>196700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>236000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>213800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>217800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>201400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>181000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>178200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>177700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>165300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>162400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>142500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>142200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>125500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>114800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,43 +1182,46 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1209,8 +1229,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1218,29 +1238,32 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>5400</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>983400</v>
+      </c>
+      <c r="E17" s="3">
         <v>934800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>853200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>793200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>763300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>686600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>655600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>606000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>440200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>508300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>484900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>489700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>474400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>437300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>413400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>401600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>397000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>366400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>357100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>315300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>315400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>284600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>260000</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E18" s="3">
         <v>93900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>83400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>96800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>36500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>28600</v>
       </c>
       <c r="W18" s="3">
         <v>28600</v>
       </c>
       <c r="X18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>22700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>18300</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,8 +1547,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1529,11 +1563,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1556,11 +1590,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1585,307 +1619,322 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E21" s="3">
         <v>128600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>94800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>113800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>125400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>122400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>92400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>101700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>62800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>49800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>56900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>47600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>49300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>48000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>37800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>26600</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>5400</v>
       </c>
       <c r="Y22" s="3">
         <v>5400</v>
       </c>
       <c r="Z22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E23" s="3">
         <v>92800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>82300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>94600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>26000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E24" s="3">
         <v>21900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E26" s="3">
         <v>71000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>74600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>82900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>75800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>68800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16700</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AA26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E27" s="3">
         <v>71000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>74600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>82900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>57100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>68800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16700</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AA27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,17 +2267,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2224,23 +2285,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>600</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>600</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>17800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,8 +2469,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2417,11 +2487,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2444,11 +2514,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2473,85 +2543,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E33" s="3">
         <v>71000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>49900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>74600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>82900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>68800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16700</v>
       </c>
-      <c r="Z33" s="3" t="s">
+      <c r="AA33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E35" s="3">
         <v>71000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>49900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>74600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>82900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>68800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16700</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="AA35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44560</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44378</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44287</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44098</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44007</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43734</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43552</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43461</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43370</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43279</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43188</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43097</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43006</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42915</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42824</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42733</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,61 +2919,62 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>330100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>366100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>354100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>307800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>271100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>289900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>500</v>
       </c>
       <c r="T41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>600</v>
@@ -2896,19 +2983,22 @@
         <v>600</v>
       </c>
       <c r="W41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,304 +3071,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E43" s="3">
         <v>97800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>85000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>81000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>72200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>71900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>48000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>52600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>40600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>33400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>34500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1344100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1149500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1008200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>833100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>683800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>607600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>654000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>598500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>594300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>588900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>581900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>484000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>446400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>437500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>471000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>403800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>432400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>426700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>428000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>395600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>367500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>316500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>293700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E45" s="3">
         <v>43400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1511300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1322500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1273300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1294200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1165400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1061900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1040500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>974000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>830000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>951000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>701500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>643700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>564000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>527400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>559500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>486800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>502300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>486400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>503200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>456300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>416100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>359900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>336200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,99 +3456,105 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2263500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2144500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2032800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1918300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1782400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1558800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1495700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1396900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1354900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1338600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1278500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1169000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1102700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>998000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>328400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>271500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>245400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>221000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>200400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>183600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>163800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>150500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>407100</v>
+      </c>
+      <c r="E49" s="3">
         <v>407300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>407400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>408200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>408900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>336700</v>
       </c>
       <c r="I49" s="3">
         <v>336700</v>
@@ -3461,7 +3572,7 @@
         <v>336700</v>
       </c>
       <c r="N49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="O49" s="3">
         <v>336800</v>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E52" s="3">
         <v>19200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4199400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3893400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3730700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3628100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3364300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2964700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2880400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2714400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2528700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2633900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2324300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2156900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2011100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1873400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1234100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1131900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1118400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1075900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1068000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1000900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>944200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>868400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>831200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,82 +4055,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>770200</v>
+      </c>
+      <c r="E57" s="3">
         <v>688500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>661900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>634300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>529200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>402100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>417900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>362500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>326000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>319800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>368500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>318400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>272700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>229500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>313500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>265000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>255000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>258700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>249200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>243600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>205900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>158500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4008,37 +4142,37 @@
         <v>1600</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>3500</v>
@@ -4071,306 +4205,321 @@
         <v>3500</v>
       </c>
       <c r="Z58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>425500</v>
+      </c>
+      <c r="E59" s="3">
         <v>403300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>368000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>376100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>325500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>268700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>279300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>253700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>184900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>184100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>174100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>165400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>87300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>82900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>66800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>72600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>97100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>91500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>75300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>83800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>81700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1197300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1093300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1032000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1012000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>860200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>673000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>698800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>618900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>533700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>506500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>552500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>492400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>424600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>398300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>404300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>324200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>335300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>331100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>359300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>344200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>322400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>293200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>243700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E61" s="3">
         <v>195700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>195400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>195500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>207200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>206800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>207000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>413300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>142600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>143300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>140500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>143300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>141800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>142500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>156800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>169800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>185600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>183900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>178300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>351200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>387200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1243700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1202000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1179700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1155300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1129000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1015500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>977000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>957200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>937600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>904800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>864800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>798100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>775100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>711800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>103700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>101500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>91600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>87400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>80300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>84600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>82300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>77800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>65900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2705100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2491000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2407500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2363200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2184700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1884000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1883000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1782900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1678200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1824600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1560000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1433800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1340200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1253400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>649800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>568200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>583700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>588300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>625100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>612800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>583100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>722200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>696900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="E72" s="3">
         <v>943200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>872200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>822400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>747700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>664800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>589000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>531900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>463100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>431100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>394000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>358700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>317700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>274100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>243600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>225700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>199100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>159200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>119600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>71600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1494300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1402400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1323200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1264900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1179600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1080700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>997400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>931500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>850500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>809300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>764300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>723000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>670900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>620000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>584300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>563700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>534700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>487600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>442900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>388200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>361100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>146100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>134300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44560</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44378</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44287</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44098</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44007</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43734</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43552</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43461</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43370</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43279</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43188</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43097</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43006</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42915</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42824</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42733</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E81" s="3">
         <v>71000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>49900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>74600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>82900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>68800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16700</v>
       </c>
-      <c r="Z81" s="3" t="s">
+      <c r="AA81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E83" s="3">
         <v>34600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8300</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-63600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>108300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>155600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>101000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>136500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>43300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>56100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>18500</v>
       </c>
-      <c r="Z89" s="3" t="s">
+      <c r="AA89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-130000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-145600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-86200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-102800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-101400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-130000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-145800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-149600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-102800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-62800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7023,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-199900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>276600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-36300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
-      <c r="Z100" s="3" t="s">
+      <c r="AA100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,56 +7177,59 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-107600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-190600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>136700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-155500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>262900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-57100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6988,18 +7240,21 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44560</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44378</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44287</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44098</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44007</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43734</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43552</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43461</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43370</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43279</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43188</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43097</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43006</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42915</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42824</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42733</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1097800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1089800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1028700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>914300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>876600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>860100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>782500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>723700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>684800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>462400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>554900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>527000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>521100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>520300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>477100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>436700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>435900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>434300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>402900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>389500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>343900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>344000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>307300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>278300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>650300</v>
+      </c>
+      <c r="E9" s="3">
         <v>653600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>620700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>559700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>511200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>494700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>445600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>416100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>390200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>265700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>318900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>297000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>307300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>302500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>275700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>255700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>257700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>237600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>227100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>201400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>201800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>181800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>163500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>447500</v>
+      </c>
+      <c r="E10" s="3">
         <v>436200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>408000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>354600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>365400</v>
       </c>
       <c r="H10" s="3">
         <v>365400</v>
       </c>
       <c r="I10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="J10" s="3">
         <v>336900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>307600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>294600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>196700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>236000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>213800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>217800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>201400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>181000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>178200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>177700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>165300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>162400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>142500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>142200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>125500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>114800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,35 +1216,35 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1232,8 +1252,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1241,29 +1261,32 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>5400</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>996200</v>
+      </c>
+      <c r="E17" s="3">
         <v>983400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>934800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>853200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>793200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>763300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>686600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>655600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>606000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>440200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>508300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>484900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>489700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>474400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>437300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>413400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>401600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>397000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>366400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>357100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>315300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>315400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>284600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>260000</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E18" s="3">
         <v>106400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>93900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>83400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>46600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>36500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>28600</v>
       </c>
       <c r="X18" s="3">
         <v>28600</v>
       </c>
       <c r="Y18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Z18" s="3">
         <v>22700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>18300</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,8 +1581,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1566,11 +1600,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1593,11 +1627,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1622,319 +1656,334 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E21" s="3">
         <v>144400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>94800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>113800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>122400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>92400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>101700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>62800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>49800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>56900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>47600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>49300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>48000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>38200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>37800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>31600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>26600</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
       <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>5400</v>
       </c>
       <c r="Z22" s="3">
         <v>5400</v>
       </c>
       <c r="AA22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E23" s="3">
         <v>104700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>92800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>82300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>97300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>94600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>26000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E24" s="3">
         <v>22900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E26" s="3">
         <v>81800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>74600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>82900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>75800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16700</v>
       </c>
-      <c r="AA26" s="3" t="s">
+      <c r="AB26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E27" s="3">
         <v>81800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>74600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>82900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16700</v>
       </c>
-      <c r="AA27" s="3" t="s">
+      <c r="AB27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,17 +2331,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2288,23 +2349,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>600</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>600</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>17800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,8 +2539,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2490,11 +2560,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2517,11 +2587,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2546,88 +2616,94 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E33" s="3">
         <v>81800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>71000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>74600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>82900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>68800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16700</v>
       </c>
-      <c r="AA33" s="3" t="s">
+      <c r="AB33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E35" s="3">
         <v>81800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>71000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>74600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>82900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>68800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16700</v>
       </c>
-      <c r="AA35" s="3" t="s">
+      <c r="AB35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44560</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44378</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44287</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44098</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44007</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43734</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43552</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43461</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43370</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43279</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43188</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43097</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43006</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42915</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42824</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42733</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,64 +3006,65 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>139400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>330100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>366100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>354100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>307800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>289900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V41" s="3">
         <v>600</v>
@@ -2986,19 +3073,22 @@
         <v>600</v>
       </c>
       <c r="X41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Y41" s="3">
         <v>400</v>
       </c>
       <c r="Z41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,316 +3164,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E43" s="3">
         <v>111700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>97800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>85000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>81500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>82100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>72200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>71900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>57200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>48000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>52600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>40600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>33400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>34500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1320500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1344100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1149500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1008200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>833100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>683800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>607600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>654000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>598500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>594300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>588900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>581900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>484000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>446400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>437500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>471000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>403800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>432400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>426700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>428000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>395600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>367500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>316500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>293700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E45" s="3">
         <v>49300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1497100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1511300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1322500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1273300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1294200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1165400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1061900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1040500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>974000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>830000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>951000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>701500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>643700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>564000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>527400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>559500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>486800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>502300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>486400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>503200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>456300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>416100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>359900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>336200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,105 +3564,111 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2321500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2263500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2144500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2032800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1918300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1782400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1558800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1495700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1396900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1354900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1338600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1278500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1169000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1102700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>998000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>328400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>271500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>245400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>221000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>200400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>183600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>163800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>150500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>406300</v>
+      </c>
+      <c r="E49" s="3">
         <v>407100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>407300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>407400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>408200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>408900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>336700</v>
       </c>
       <c r="J49" s="3">
         <v>336700</v>
@@ -3575,7 +3686,7 @@
         <v>336700</v>
       </c>
       <c r="O49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="P49" s="3">
         <v>336800</v>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E52" s="3">
         <v>17600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4244700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4199400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3893400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3730700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3628100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3364300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2964700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2880400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2714400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2528700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2633900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2324300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2156900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2011100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1873400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1234100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1131900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1118400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1075900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1068000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1000900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>944200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>868400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>831200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,126 +4186,130 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>642100</v>
+      </c>
+      <c r="E57" s="3">
         <v>770200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>688500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>661900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>634300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>529200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>402100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>417900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>362500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>326000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>319800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>368500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>318400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>272700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>229500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>313500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>265000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>255000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>258700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>249200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>243600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>205900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>158500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
       </c>
       <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>3500</v>
@@ -4208,318 +4342,333 @@
         <v>3500</v>
       </c>
       <c r="AA58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>417200</v>
+      </c>
+      <c r="E59" s="3">
         <v>425500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>403300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>368000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>376100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>325500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>268700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>279300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>253700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>205100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>184900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>184100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>174100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>165400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>87300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>82900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>66800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>72600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>97100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>91500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>75300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>83800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>81700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1061400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1197300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1093300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1032000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1012000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>860200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>673000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>698800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>618900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>533700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>506500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>552500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>492400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>424600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>398300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>404300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>324200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>335300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>331100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>359300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>344200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>322400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>293200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>243700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>371900</v>
+      </c>
+      <c r="E61" s="3">
         <v>264200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>195900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>195400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>207200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>206800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>207000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>413300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>142600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>143300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>140500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>143300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>141800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>142500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>156800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>169800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>185600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>183900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>178300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>351200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>387200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1228800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1243700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1202000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1179700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1155300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1129000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1015500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>977000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>957200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>937600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>904800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>864800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>798100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>775100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>711800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>101500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>91600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>87400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>80300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>84600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>82300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>77800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>65900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2662000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2705100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2491000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2407500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2363200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2184700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1884000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1883000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1782900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1678200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1824600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1560000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1433800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1340200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1253400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>649800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>568200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>583700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>588300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>625100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>612800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>583100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>722200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>696900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1101200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1025000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>943200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>872200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>822400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>747700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>664800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>589000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>531900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>463100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>431100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>394000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>358700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>317700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>274100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>243600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>225700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>199100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>159200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>119600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>71600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>48300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1582600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1494300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1402400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1323200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1264900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1179600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1080700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>997400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>931500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>850500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>809300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>764300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>723000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>670900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>620000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>584300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>563700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>534700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>487600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>442900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>388200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>361100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>146100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>134300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44560</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44378</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44287</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44098</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44007</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43734</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43552</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43461</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43370</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43279</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43188</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43097</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43006</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42915</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42824</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42733</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E81" s="3">
         <v>81800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>71000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>74600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>82900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>68800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16700</v>
       </c>
-      <c r="AA81" s="3" t="s">
+      <c r="AB81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E83" s="3">
         <v>38000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8300</v>
       </c>
-      <c r="AA83" s="3" t="s">
+      <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-63600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>108300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>155600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>101000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>136500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>41900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>59800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>56100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>18500</v>
       </c>
-      <c r="AA89" s="3" t="s">
+      <c r="AB89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-113400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-130000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-145600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-86200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-102800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-109200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-101400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-130000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-145800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-149600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-102800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-62800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,85 +7269,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E100" s="3">
         <v>72400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-199900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>276600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>15300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-36300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4000</v>
       </c>
-      <c r="AA100" s="3" t="s">
+      <c r="AB100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,59 +7429,62 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-107600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-190600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>136700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-155500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>262900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7243,18 +7495,21 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44924</v>
+      </c>
+      <c r="E7" s="2">
         <v>44833</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44560</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44378</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44287</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44098</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44007</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43734</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43552</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43461</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43370</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43279</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43188</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43097</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43006</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42915</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42824</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42733</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1048100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1097800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1089800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1028700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>914300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>876600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>860100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>782500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>723700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>684800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>462400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>554900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>527000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>521100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>520300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>477100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>436700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>435900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>434300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>402900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>389500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>343900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>344000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>307300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>278300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>612200</v>
+      </c>
+      <c r="E9" s="3">
         <v>650300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>653600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>620700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>559700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>511200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>494700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>445600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>416100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>390200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>265700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>318900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>297000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>307300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>302500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>275700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>255700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>257700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>256600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>237600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>227100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>201400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>201800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>181800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>163500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E10" s="3">
         <v>447500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>436200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>408000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>354600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>365400</v>
       </c>
       <c r="I10" s="3">
         <v>365400</v>
       </c>
       <c r="J10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="K10" s="3">
         <v>336900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>294600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>196700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>236000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>230000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>213800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>217800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>201400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>181000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>178200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>177700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>165300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>162400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>142500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>142200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>125500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>114800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,13 +1221,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1219,35 +1238,35 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1255,8 +1274,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1264,29 +1283,32 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>5400</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>953300</v>
+      </c>
+      <c r="E17" s="3">
         <v>996200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>983400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>934800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>853200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>793200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>763300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>686600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>655600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>606000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>440200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>508300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>484900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>489700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>474400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>437300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>413400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>401600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>397000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>366400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>357100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>315300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>315400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>284600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>260000</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E18" s="3">
         <v>101600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>106400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>93900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>61100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>83400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>36500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>32400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>28600</v>
       </c>
       <c r="Y18" s="3">
         <v>28600</v>
       </c>
       <c r="Z18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="AA18" s="3">
         <v>22700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>18300</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,8 +1614,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1603,11 +1636,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1630,11 +1663,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1659,331 +1692,346 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E21" s="3">
         <v>141800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>144400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>94800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>113800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>122400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>62800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>49800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>56900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>47600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>49300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>48000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>42800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>38200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>31600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>26600</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3400</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>5400</v>
       </c>
       <c r="AA22" s="3">
         <v>5400</v>
       </c>
       <c r="AB22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AC22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E23" s="3">
         <v>98600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>104700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>92800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>82300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>97300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>94600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>35100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>26000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>25300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E24" s="3">
         <v>22500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E26" s="3">
         <v>76200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>74600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>82900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>75800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>31900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16700</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AC26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E27" s="3">
         <v>76200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>81800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>74600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>82900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>31900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16700</v>
       </c>
-      <c r="AB27" s="3" t="s">
+      <c r="AC27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2334,17 +2394,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2352,23 +2412,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>600</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>600</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>17800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,8 +2608,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2563,11 +2632,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2590,11 +2659,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2619,91 +2688,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E33" s="3">
         <v>76200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>81800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>74600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>82900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>68800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>31900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>48000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16700</v>
       </c>
-      <c r="AB33" s="3" t="s">
+      <c r="AC33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E35" s="3">
         <v>76200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>81800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>74600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>82900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>68800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>31900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>48000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16700</v>
       </c>
-      <c r="AB35" s="3" t="s">
+      <c r="AC35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44924</v>
+      </c>
+      <c r="E38" s="2">
         <v>44833</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44560</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44378</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44287</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44098</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44007</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43734</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43552</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43461</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43370</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43279</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43188</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43097</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43006</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42915</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42824</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42733</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,67 +3092,68 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>330100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>366100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>354100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>307800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>271100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>289900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>500</v>
       </c>
       <c r="V41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W41" s="3">
         <v>600</v>
@@ -3076,19 +3162,22 @@
         <v>600</v>
       </c>
       <c r="Y41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
       </c>
       <c r="AA41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,328 +3256,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E43" s="3">
         <v>112400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>97800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>81500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>82100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>72200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>71900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>65900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>57200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>48000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>52600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>40600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>33400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>34500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1320500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1344100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1149500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1008200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>833100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>683800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>607600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>654000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>598500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>594300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>588900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>581900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>484000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>446400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>437500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>471000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>403800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>432400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>426700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>428000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>395600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>367500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>316500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>293700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E45" s="3">
         <v>56500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1457500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1497100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1511300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1322500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1273300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1294200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1165400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1061900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1040500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>974000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>830000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>951000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>701500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>643700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>564000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>527400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>559500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>486800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>502300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>486400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>503200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>456300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>416100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>359900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>336200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,111 +3671,117 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2463700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2321500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2263500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2144500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2032800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1918300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1782400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1558800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1495700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1396900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1354900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1338600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1278500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1102700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>998000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>328400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>271500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>245400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>221000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>200400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>183600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>163800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>150500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>407800</v>
+      </c>
+      <c r="E49" s="3">
         <v>406300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>407100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>407300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>407400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>408200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>408900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>336700</v>
       </c>
       <c r="K49" s="3">
         <v>336700</v>
@@ -3689,7 +3799,7 @@
         <v>336700</v>
       </c>
       <c r="P49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="Q49" s="3">
         <v>336800</v>
@@ -3727,8 +3837,11 @@
       <c r="AB49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4351200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4244700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4199400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3893400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3730700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3628100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3364300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2964700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2880400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2714400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2528700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2633900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2324300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2156900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2011100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1873400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1234100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1131900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1118400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1075900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1068000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1000900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>944200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>868400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>831200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,88 +4316,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>590900</v>
+      </c>
+      <c r="E57" s="3">
         <v>642100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>770200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>688500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>661900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>634300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>529200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>402100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>417900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>362500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>326000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>319800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>368500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>318400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>272700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>229500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>313500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>237800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>265000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>255000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>258700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>249200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>243600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>205900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>158500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4276,43 +4409,43 @@
         <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
       </c>
       <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>3500</v>
@@ -4345,330 +4478,345 @@
         <v>3500</v>
       </c>
       <c r="AB58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>413800</v>
+      </c>
+      <c r="E59" s="3">
         <v>417200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>425500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>403300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>368000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>376100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>325500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>268700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>279300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>253700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>205100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>184900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>174100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>148400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>165400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>87300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>82900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>66800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>72600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>97100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>91500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>75300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>83800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>81700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1006800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1061400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1197300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1093300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1032000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1012000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>860200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>673000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>698800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>618900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>533700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>506500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>552500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>492400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>424600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>398300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>404300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>324200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>335300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>331100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>359300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>344200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>322400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>293200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>243700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>405600</v>
+      </c>
+      <c r="E61" s="3">
         <v>371900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>264200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>195800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>195900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>195500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>207200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>206800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>207000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>413300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>142600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>143300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>140500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>143300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>141800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>142500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>156800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>169800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>185600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>183900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>178300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>351200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>387200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1281800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1228800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1243700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1202000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1179700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1155300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1129000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1015500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>977000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>957200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>937600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>904800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>864800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>798100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>775100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>711800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>101500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>91600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>87400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>80300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>82300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>77800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>65900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2694100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2662000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2705100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2491000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2407500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2363200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2184700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1884000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1883000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1782900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1678200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1824600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1560000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1433800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1340200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1253400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>649800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>568200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>583700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>588300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>625100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>612800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>583100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>722200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>696900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1170400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1101200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1025000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>943200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>872200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>822400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>747700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>664800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>589000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>531900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>463100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>431100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>394000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>358700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>317700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>274100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>243600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>225700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>199100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>159200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>119600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>71600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>48300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1657200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1582600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1494300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1402400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1323200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1264900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1179600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1080700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>997400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>931500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>850500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>809300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>764300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>723000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>670900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>620000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>584300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>563700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>534700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>487600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>442900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>388200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>361100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>146100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>134300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44924</v>
+      </c>
+      <c r="E80" s="2">
         <v>44833</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44560</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44378</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44287</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44098</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44007</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43734</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43552</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43461</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43370</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43279</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43188</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43097</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43006</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42915</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42824</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42733</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E81" s="3">
         <v>76200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>81800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>74600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>82900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>68800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>31900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>48000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16700</v>
       </c>
-      <c r="AB81" s="3" t="s">
+      <c r="AC81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,88 +6209,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E83" s="3">
         <v>40100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8300</v>
       </c>
-      <c r="AB83" s="3" t="s">
+      <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-63600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>108300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>155600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>101000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>136500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>95100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>41900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>59800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>56100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18500</v>
       </c>
-      <c r="AB89" s="3" t="s">
+      <c r="AC89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-108500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-130000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-145600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-86200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-102800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-42000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AB91" s="3" t="s">
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-136500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-109200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-101400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-130000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-145800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-149600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-102800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-22400</v>
       </c>
-      <c r="AB94" s="3" t="s">
+      <c r="AC94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,88 +7514,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E100" s="3">
         <v>110600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-199900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>276600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>15300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-36300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4000</v>
       </c>
-      <c r="AB100" s="3" t="s">
+      <c r="AC100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,62 +7680,65 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-107600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-190600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>36600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>136700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-155500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>262900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7498,18 +7749,21 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45015</v>
+      </c>
+      <c r="E7" s="2">
         <v>44924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44833</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44560</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44378</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44287</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44098</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43552</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43461</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43370</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43279</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43188</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43097</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43006</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42915</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42824</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42733</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1122100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1048100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1097800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1089800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1028700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>914300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>876600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>860100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>782500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>723700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>684800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>462400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>554900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>527000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>521100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>520300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>477100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>436700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>435900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>434300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>402900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>389500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>343900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>344000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>307300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>278300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>652900</v>
+      </c>
+      <c r="E9" s="3">
         <v>612200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>650300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>653600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>620700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>559700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>511200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>494700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>445600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>416100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>390200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>265700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>318900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>297000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>307300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>302500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>275700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>255700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>257700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>256600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>237600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>201400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>201800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>181800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>163500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E10" s="3">
         <v>435900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>447500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>436200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>408000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>354600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>365400</v>
       </c>
       <c r="J10" s="3">
         <v>365400</v>
       </c>
       <c r="K10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="L10" s="3">
         <v>336900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>307600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>294600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>196700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>236000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>230000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>213800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>217800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>201400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>181000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>178200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>177700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>165300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>162400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>142500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>142200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>125500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>114800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,16 +1241,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1241,35 +1261,35 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1277,8 +1297,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1286,29 +1306,32 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>5400</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1026500</v>
+      </c>
+      <c r="E17" s="3">
         <v>953300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>996200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>983400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>934800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>853200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>793200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>763300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>686600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>655600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>606000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>440200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>508300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>484900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>489700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>474400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>437300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>413400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>401600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>397000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>366400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>357100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>315300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>315400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>284600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>260000</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E18" s="3">
         <v>94800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>101600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>106400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>93900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>61100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>83400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>34300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>37300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>36500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>32400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>28600</v>
       </c>
       <c r="Z18" s="3">
         <v>28600</v>
       </c>
       <c r="AA18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="AB18" s="3">
         <v>22700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>18300</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,8 +1648,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1639,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1666,11 +1700,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1695,343 +1729,358 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E21" s="3">
         <v>137100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>144400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>94800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>113800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>92400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>101700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>44400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>62800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>56900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>47600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>49300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>48000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>42800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>38200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>37800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>31600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>26600</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3400</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>5400</v>
       </c>
       <c r="AB22" s="3">
         <v>5400</v>
       </c>
       <c r="AC22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AD22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E23" s="3">
         <v>89400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>98600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>104700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>92800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>97300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>94600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>36800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>35100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>26000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>25300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>12900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E24" s="3">
         <v>20200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E26" s="3">
         <v>69200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>81800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>71000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>49900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>74600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>82900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>31900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>30100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>20400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>11100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>16700</v>
       </c>
-      <c r="AC26" s="3" t="s">
+      <c r="AD26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E27" s="3">
         <v>69200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>76200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>81800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>71000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>74600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>82900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>26000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>39800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>31900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>16700</v>
       </c>
-      <c r="AC27" s="3" t="s">
+      <c r="AD27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,17 +2458,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2415,23 +2476,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>600</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>600</v>
       </c>
       <c r="V29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>17800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,8 +2678,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2635,11 +2705,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2662,11 +2732,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2691,94 +2761,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-      <c r="AC32" s="3" t="s">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E33" s="3">
         <v>69200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>81800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>74600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>82900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>26600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>39800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>16700</v>
       </c>
-      <c r="AC33" s="3" t="s">
+      <c r="AD33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E35" s="3">
         <v>69200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>81800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>74600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>82900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>26600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>39800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>16700</v>
       </c>
-      <c r="AC35" s="3" t="s">
+      <c r="AD35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45015</v>
+      </c>
+      <c r="E38" s="2">
         <v>44924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44833</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44560</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44378</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44287</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44098</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43552</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43461</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43370</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43279</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43188</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43097</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43006</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42915</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42824</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42733</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,70 +3179,71 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>330100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>366100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>354100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>307800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>271100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>289900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>84100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
-      </c>
-      <c r="U41" s="3">
-        <v>500</v>
       </c>
       <c r="V41" s="3">
         <v>500</v>
       </c>
       <c r="W41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X41" s="3">
         <v>600</v>
@@ -3165,19 +3252,22 @@
         <v>600</v>
       </c>
       <c r="Z41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AA41" s="3">
         <v>400</v>
       </c>
       <c r="AB41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC41" s="3">
         <v>500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,340 +3349,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E43" s="3">
         <v>102100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>81500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>81000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>82100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>72200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>71900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>65900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>57200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>48000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>66500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>52600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>40600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>33400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>34500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1181100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1292300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1320500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1344100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1149500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1008200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>833100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>683800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>607600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>654000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>598500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>594300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>588900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>581900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>484000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>446400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>437500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>471000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>403800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>432400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>426700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>428000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>395600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>367500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>316500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>293700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E45" s="3">
         <v>53300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1328500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1457500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1497100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1511300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1322500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1273300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1294200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1165400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1061900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1040500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>974000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>830000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>951000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>701500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>643700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>564000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>527400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>559500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>486800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>502300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>486400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>503200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>456300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>416100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>359900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>336200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3674,117 +3779,123 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2576500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2463700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2321500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2263500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2144500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2032800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1918300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1782400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1558800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1495700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1396900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1354900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1338600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1278500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1169000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1102700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>998000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>328400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>271500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>245400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>221000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>200400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>183600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>163800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>150500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>407100</v>
+      </c>
+      <c r="E49" s="3">
         <v>407800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>406300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>407100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>407300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>407400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>408200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>408900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>336700</v>
       </c>
       <c r="L49" s="3">
         <v>336700</v>
@@ -3802,7 +3913,7 @@
         <v>336700</v>
       </c>
       <c r="Q49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="R49" s="3">
         <v>336800</v>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,91 +4123,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E52" s="3">
         <v>22200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4335200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4351200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4244700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4199400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3893400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3730700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3628100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3364300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2964700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2880400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2714400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2528700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2633900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2324300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2156900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2011100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1873400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1234100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1131900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1118400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1075900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1068000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1000900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>944200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>868400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>831200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,91 +4447,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>572500</v>
+      </c>
+      <c r="E57" s="3">
         <v>590900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>642100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>770200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>688500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>661900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>634300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>529200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>402100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>417900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>362500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>326000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>319800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>368500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>318400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>272700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>229500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>313500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>237800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>265000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>255000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>258700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>249200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>243600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>205900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>158500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4412,43 +4546,43 @@
         <v>2100</v>
       </c>
       <c r="F58" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
       </c>
       <c r="H58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>3500</v>
@@ -4481,342 +4615,357 @@
         <v>3500</v>
       </c>
       <c r="AC58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AD58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E59" s="3">
         <v>413800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>417200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>425500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>403300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>368000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>376100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>325500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>268700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>279300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>253700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>205100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>174100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>148400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>165400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>87300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>82900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>66800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>72600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>97100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>91500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>75300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>83800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>81700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1006500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1006800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1061400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1197300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1093300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1032000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1012000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>860200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>673000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>698800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>618900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>533700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>506500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>552500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>492400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>424600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>398300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>404300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>324200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>335300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>331100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>359300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>344200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>322400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>293200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>243700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E61" s="3">
         <v>405600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>371900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>264200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>195700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>195800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>195400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>195500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>207200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>206800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>207000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>413300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>142600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>143300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>140500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>143300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>141800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>142500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>156800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>169800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>185600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>183900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>178300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>351200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>387200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1298500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1281800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1228800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1243700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1202000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1179700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1155300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1129000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1015500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>977000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>957200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>937600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>904800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>864800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>798100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>775100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>711800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>103700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>101500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>91600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>87400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>80300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>84600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>82300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>77800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>65900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2606800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2694100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2662000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2705100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2491000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2407500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2363200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2184700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1884000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1883000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1782900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1678200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1824600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1560000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1433800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1340200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1253400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>649800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>568200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>583700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>588300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>625100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>612800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>583100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>722200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>696900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1241900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1170400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1101200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1025000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>943200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>872200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>822400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>747700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>664800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>589000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>531900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>463100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>431100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>394000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>358700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>317700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>274100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>243600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>225700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>199100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>159200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>119600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>71600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>48300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>27900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1728400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1657200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1582600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1494300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1402400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1323200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1264900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1179600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1080700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>997400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>931500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>850500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>809300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>764300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>723000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>670900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>620000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>584300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>563700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>534700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>487600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>442900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>388200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>361100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>146100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>134300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45015</v>
+      </c>
+      <c r="E80" s="2">
         <v>44924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44833</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44560</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44378</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44287</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44098</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43552</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43461</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43370</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43279</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43188</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43097</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43006</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42915</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42824</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42733</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E81" s="3">
         <v>69200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>81800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>74600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>82900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>26600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>39800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>16700</v>
       </c>
-      <c r="AC81" s="3" t="s">
+      <c r="AD81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E83" s="3">
         <v>42300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>38000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8300</v>
       </c>
-      <c r="AC83" s="3" t="s">
+      <c r="AD83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>250300</v>
+      </c>
+      <c r="E89" s="3">
         <v>105100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-63600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>108300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>155600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>101000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>136500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>173000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>59800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>43300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>26300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>56100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>18500</v>
       </c>
-      <c r="AC89" s="3" t="s">
+      <c r="AD89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-133800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-108500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-113400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-130000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-145600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-86200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-102800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-62800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AC91" s="3" t="s">
+      <c r="AD91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-136500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-108500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-109200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-130000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-145800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-149600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-62800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-25700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-19800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-22400</v>
       </c>
-      <c r="AC94" s="3" t="s">
+      <c r="AD94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,91 +7760,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115600</v>
+      </c>
+      <c r="E100" s="3">
         <v>33400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>110600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>72400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-199900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>276600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>15300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-36300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>4000</v>
       </c>
-      <c r="AC100" s="3" t="s">
+      <c r="AD100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,65 +7932,68 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-107600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-190600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>136700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-155500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>262900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>51000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7752,18 +8004,21 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,396 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45106</v>
+      </c>
+      <c r="E7" s="2">
         <v>45015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44833</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44560</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44378</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44287</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44098</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43552</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43461</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43370</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43279</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43188</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43097</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43006</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42915</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42824</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42733</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1135900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1122100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1048100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1097800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1089800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1028700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>914300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>876600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>860100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>782500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>723700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>684800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>462400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>554900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>527000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>521100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>520300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>477100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>436700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>435900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>434300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>402900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>389500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>343900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>344000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>307300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>278300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>656300</v>
+      </c>
+      <c r="E9" s="3">
         <v>652900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>612200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>650300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>653600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>620700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>559700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>511200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>494700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>445600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>416100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>390200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>318900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>297000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>307300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>302500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>275700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>255700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>257700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>256600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>237600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>227100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>201400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>201800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>181800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>163500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>479600</v>
+      </c>
+      <c r="E10" s="3">
         <v>469200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>435900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>447500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>436200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>408000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>354600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>365400</v>
       </c>
       <c r="K10" s="3">
         <v>365400</v>
       </c>
       <c r="L10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="M10" s="3">
         <v>336900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>307600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>294600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>196700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>236000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>230000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>213800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>217800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>201400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>181000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>178200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>177700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>165300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>162400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>142500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>142200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>125500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>114800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,19 +1261,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1264,35 +1284,35 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1300,8 +1320,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1309,29 +1329,32 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>5400</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1026500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>953300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>996200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>983400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>934800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>853200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>793200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>763300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>686600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>655600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>606000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>440200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>508300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>484900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>489700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>474400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>437300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>413400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>401600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>397000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>366400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>357100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>315300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>315400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>284600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>260000</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E18" s="3">
         <v>95600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>94800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>101600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>106400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>93900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>83400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>45900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>34300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>37300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>36500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>32400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>28600</v>
       </c>
       <c r="AA18" s="3">
         <v>28600</v>
       </c>
       <c r="AB18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="AC18" s="3">
         <v>22700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>18300</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,8 +1682,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1676,11 +1710,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1703,11 +1737,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1732,355 +1766,370 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E21" s="3">
         <v>141900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>137100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>141800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>144400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>94800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>113800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>92400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>101700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>44400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>62800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>49800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>56900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>47600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>49300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>48000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>42800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>38200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>37800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>31600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>26600</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
       </c>
       <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3400</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>5400</v>
       </c>
       <c r="AC22" s="3">
         <v>5400</v>
       </c>
       <c r="AD22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AE22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E23" s="3">
         <v>90700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>98600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>104700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>92800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>60000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>82300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>94600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>76800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>35100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>26000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>12900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E24" s="3">
         <v>19100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,8 +2214,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2174,85 +2226,88 @@
         <v>71500</v>
       </c>
       <c r="E26" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F26" s="3">
         <v>69200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>81800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>71000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>74600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>39800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>31900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>30100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>11100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>16700</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2260,85 +2315,88 @@
         <v>71500</v>
       </c>
       <c r="E27" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F27" s="3">
         <v>69200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>76200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>81800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>74600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>82900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>26000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>39800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>31900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>30100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>16700</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AE27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2461,17 +2522,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2479,23 +2540,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>600</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>600</v>
       </c>
       <c r="W29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>17800</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,8 +2748,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2708,11 +2778,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2735,11 +2805,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2764,11 +2834,14 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-      <c r="AD32" s="3" t="s">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2776,85 +2849,88 @@
         <v>71500</v>
       </c>
       <c r="E33" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F33" s="3">
         <v>69200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>81800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>74600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>82900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>26600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>39800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>48000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>11100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>16700</v>
       </c>
-      <c r="AD33" s="3" t="s">
+      <c r="AE33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,8 +3015,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2948,176 +3027,182 @@
         <v>71500</v>
       </c>
       <c r="E35" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F35" s="3">
         <v>69200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>81800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>74600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>82900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>26600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>39800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>48000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>11100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>16700</v>
       </c>
-      <c r="AD35" s="3" t="s">
+      <c r="AE35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45106</v>
+      </c>
+      <c r="E38" s="2">
         <v>45015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44833</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44560</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44378</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44287</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44098</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43552</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43461</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43370</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43279</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43188</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43097</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43006</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42915</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42824</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42733</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,73 +3266,74 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>330100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>366100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>354100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>307800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>271100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>134400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>289900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>84100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
-      </c>
-      <c r="V41" s="3">
-        <v>500</v>
       </c>
       <c r="W41" s="3">
         <v>500</v>
       </c>
       <c r="X41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y41" s="3">
         <v>600</v>
@@ -3255,19 +3342,22 @@
         <v>600</v>
       </c>
       <c r="AA41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AB41" s="3">
         <v>400</v>
       </c>
       <c r="AC41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD41" s="3">
         <v>500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,352 +3442,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E43" s="3">
         <v>88000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>102100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>81500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>81000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>82100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>72200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>71900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>65900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>57200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>48000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>66500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>52600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>40600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>33400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>34500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1172500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1181100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1292300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1320500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1344100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1149500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1008200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>833100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>683800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>607600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>654000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>598500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>594300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>588900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>581900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>484000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>446400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>437500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>471000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>403800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>432400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>426700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>428000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>395600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>367500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>316500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>293700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E45" s="3">
         <v>54300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>49500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>9500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>7500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1335500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1328500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1457500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1497100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1511300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1322500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1273300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1294200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1165400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1061900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1040500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>974000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>830000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>951000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>701500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>643700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>564000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>527400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>559500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>486800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>502300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>486400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>503200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>456300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>416100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>359900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>336200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,123 +3887,129 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2701200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2576500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2463700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2321500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2263500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2144500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2032800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1918300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1782400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1558800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1495700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1396900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1354900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1338600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1278500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1169000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1102700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>998000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>328400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>300300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>271500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>245400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>221000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>200400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>183600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>163800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>150500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>414600</v>
+      </c>
+      <c r="E49" s="3">
         <v>407100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>407800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>406300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>407100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>407300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>407400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>408200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>408900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>336700</v>
       </c>
       <c r="M49" s="3">
         <v>336700</v>
@@ -3916,7 +4027,7 @@
         <v>336700</v>
       </c>
       <c r="R49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="S49" s="3">
         <v>336800</v>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4243,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E52" s="3">
         <v>23200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4475500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4335200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4351200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4244700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4199400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3893400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3730700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3628100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3364300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2964700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2880400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2714400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2528700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2633900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2324300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2156900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2011100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1873400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1234100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1131900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1118400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1075900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1068000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1000900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>944200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>868400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>831200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,94 +4578,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>664700</v>
+      </c>
+      <c r="E57" s="3">
         <v>572500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>590900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>642100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>770200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>688500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>661900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>634300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>529200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>402100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>417900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>362500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>326000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>319800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>368500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>318400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>272700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>229500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>313500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>237800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>265000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>255000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>258700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>249200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>243600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>205900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>158500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4549,43 +4683,43 @@
         <v>2100</v>
       </c>
       <c r="G58" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="H58" s="3">
         <v>1600</v>
       </c>
       <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>3500</v>
@@ -4618,354 +4752,369 @@
         <v>3500</v>
       </c>
       <c r="AD58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E59" s="3">
         <v>432000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>413800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>417200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>425500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>403300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>368000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>376100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>325500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>268700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>279300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>253700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>205100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>174100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>148400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>165400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>87300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>82900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>66800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>72600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>97100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>91500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>75300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>83800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>81700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1116200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1006500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1006800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1061400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1197300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1093300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1032000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1012000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>860200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>673000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>698800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>618900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>533700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>506500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>552500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>492400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>424600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>398300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>404300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>324200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>335300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>331100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>359300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>344200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>322400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>293200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>243700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E61" s="3">
         <v>301700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>405600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>371900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>264200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>195700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>195900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>195400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>195500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>207200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>206800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>207000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>413300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>142600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>143300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>140500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>143300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>141800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>142500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>156800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>169800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>185600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>183900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>178300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>351200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>387200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1319400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1298500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1281800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1228800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1243700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1202000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1179700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1155300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1129000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1015500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>977000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>957200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>937600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>904800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>864800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>798100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>775100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>711800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>103700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>101500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>91600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>87400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>80300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>84600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>82300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>77800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>65900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2665700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2606800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2694100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2662000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2705100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2491000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2407500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2363200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2184700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1884000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1883000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1782900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1678200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1824600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1560000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1433800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1340200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1253400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>649800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>568200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>583700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>588300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>625100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>612800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>583100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>722200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>696900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1313400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1241900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1170400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1101200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1025000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>943200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>872200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>822400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>747700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>664800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>589000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>531900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>463100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>431100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>394000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>358700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>317700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>274100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>243600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>225700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>199100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>159200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>119600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>71600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>48300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>27900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1809800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1728400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1657200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1582600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1494300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1402400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1323200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1264900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1179600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1080700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>997400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>931500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>850500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>809300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>764300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>723000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>670900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>620000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>584300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>563700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>534700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>487600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>442900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>388200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>361100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>146100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>134300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,99 +6389,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45106</v>
+      </c>
+      <c r="E80" s="2">
         <v>45015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44833</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44560</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44378</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44287</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44098</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43552</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43461</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43370</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43279</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43188</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43097</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43006</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42915</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42824</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42733</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6300,85 +6495,88 @@
         <v>71500</v>
       </c>
       <c r="E81" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F81" s="3">
         <v>69200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>81800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>74600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>82900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>26600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>39800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>48000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>11100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>16700</v>
       </c>
-      <c r="AD81" s="3" t="s">
+      <c r="AE81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6607,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E83" s="3">
         <v>46400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8300</v>
       </c>
-      <c r="AD83" s="3" t="s">
+      <c r="AE83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E89" s="3">
         <v>250300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-63600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>108300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>155600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>136500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>173000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>59800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>43300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>26300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>56100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>18500</v>
       </c>
-      <c r="AD89" s="3" t="s">
+      <c r="AE89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-133800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-108500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-113400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-130000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-145600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-86200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-102800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-62800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-46000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-25700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AD91" s="3" t="s">
+      <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-139400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-136500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-101400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-130000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-145800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-62800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-42000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-46000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-25700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-19800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-22400</v>
       </c>
-      <c r="AD94" s="3" t="s">
+      <c r="AE94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,94 +8006,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>33400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>110600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>72400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-199900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>276600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>15300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-36300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>4000</v>
       </c>
-      <c r="AD100" s="3" t="s">
+      <c r="AE100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,68 +8184,71 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-107600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-190600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>136700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-155500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>262900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-57100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>51000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -8007,18 +8259,21 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>FND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,396 +665,409 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E7" s="2">
         <v>45106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44924</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44833</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44560</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44378</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44287</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44098</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43734</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43552</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43461</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43370</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43279</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43188</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43097</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43006</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42915</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42824</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42733</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1107800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1135900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1122100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1048100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1097800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1089800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1028700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>914300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>876600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>860100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>782500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>723700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>684800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>462400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>554900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>527000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>521100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>520300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>477100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>436700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>435900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>434300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>402900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>389500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>343900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>344000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>307300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>278300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>271300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>640400</v>
+      </c>
+      <c r="E9" s="3">
         <v>656300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>652900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>612200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>650300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>653600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>620700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>559700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>511200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>494700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>445600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>416100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>390200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>265700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>318900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>297000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>307300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>302500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>275700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>255700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>257700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>256600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>237600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>227100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>201400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>201800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>181800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>163500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>160300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>467400</v>
+      </c>
+      <c r="E10" s="3">
         <v>479600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>469200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>435900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>447500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>436200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>408000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>354600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>365400</v>
       </c>
       <c r="L10" s="3">
         <v>365400</v>
       </c>
       <c r="M10" s="3">
+        <v>365400</v>
+      </c>
+      <c r="N10" s="3">
         <v>336900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>294600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>196700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>236000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>230000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>213800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>217800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>201400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>181000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>178200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>177700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>165300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>162400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>142500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>142200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>125500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>114800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>111000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,22 +1281,25 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1287,35 +1307,35 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1323,8 +1343,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1332,29 +1352,32 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>5400</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1700</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1040900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1026500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>953300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>996200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>983400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>934800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>853200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>793200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>763300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>686600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>655600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>606000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>440200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>508300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>484900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>489700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>474400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>437300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>413400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>401600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>397000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>366400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>357100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>315300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>315400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>284600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>260000</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E18" s="3">
         <v>95000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>94800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>101600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>106400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>93900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>61100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>83400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>45900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>39800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>34300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>37300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>36500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>32400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>28600</v>
       </c>
       <c r="AB18" s="3">
         <v>28600</v>
       </c>
       <c r="AC18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="AD18" s="3">
         <v>22700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>18300</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AF18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,8 +1716,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1713,11 +1747,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1740,11 +1774,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1769,367 +1803,382 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E21" s="3">
         <v>144700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>137100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>141800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>144400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>94800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>113800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>101700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>68800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>62800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>49800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>56900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>47600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>49300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>48000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>42800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>38200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>37800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>31600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>26600</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AF21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
       </c>
       <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3400</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>5400</v>
       </c>
       <c r="AD22" s="3">
         <v>5400</v>
       </c>
       <c r="AE22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AF22" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E23" s="3">
         <v>92100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>90700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>89400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>98600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>104700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>92800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>60000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>94600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>76800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>35100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>26000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>25300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>12900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E24" s="3">
         <v>20600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-3800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71500</v>
+        <v>65900</v>
       </c>
       <c r="E26" s="3">
         <v>71500</v>
       </c>
       <c r="F26" s="3">
+        <v>71500</v>
+      </c>
+      <c r="G26" s="3">
         <v>69200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>81800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>49900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>75800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>39800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>31900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>30100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>20400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>11100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>16700</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AF26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71500</v>
+        <v>65900</v>
       </c>
       <c r="E27" s="3">
         <v>71500</v>
       </c>
       <c r="F27" s="3">
+        <v>71500</v>
+      </c>
+      <c r="G27" s="3">
         <v>69200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>76200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>81800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>26000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>31900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>30100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>11100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>16700</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AF27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2525,17 +2586,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2543,23 +2604,23 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>600</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>600</v>
       </c>
       <c r="X29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>17800</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,8 +2818,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2781,11 +2851,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2808,11 +2878,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2837,100 +2907,106 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-      <c r="AE32" s="3" t="s">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71500</v>
+        <v>65900</v>
       </c>
       <c r="E33" s="3">
         <v>71500</v>
       </c>
       <c r="F33" s="3">
+        <v>71500</v>
+      </c>
+      <c r="G33" s="3">
         <v>69200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>81800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>48000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>11100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>16700</v>
       </c>
-      <c r="AE33" s="3" t="s">
+      <c r="AF33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71500</v>
+        <v>65900</v>
       </c>
       <c r="E35" s="3">
         <v>71500</v>
       </c>
       <c r="F35" s="3">
+        <v>71500</v>
+      </c>
+      <c r="G35" s="3">
         <v>69200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>81800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>48000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>11100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>16700</v>
       </c>
-      <c r="AE35" s="3" t="s">
+      <c r="AF35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E38" s="2">
         <v>45106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44924</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44833</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44560</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44378</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44287</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44098</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43734</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43552</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43461</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43370</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43279</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43188</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43097</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43006</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42915</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42824</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42733</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,76 +3353,77 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>330100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>366100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>354100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>307800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>271100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>134400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>289900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>84100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>500</v>
       </c>
       <c r="X41" s="3">
         <v>500</v>
       </c>
       <c r="Y41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z41" s="3">
         <v>600</v>
@@ -3345,19 +3432,22 @@
         <v>600</v>
       </c>
       <c r="AB41" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AC41" s="3">
         <v>400</v>
       </c>
       <c r="AD41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE41" s="3">
         <v>500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3445,364 +3535,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E43" s="3">
         <v>102300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>88000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>102100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>112400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>81000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>82100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>72200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>71900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>65900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>57200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>48000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>66500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>52600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>40600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>33400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>34500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1105500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1172500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1181100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1292300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1320500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1344100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1149500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1008200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>833100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>683800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>607600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>654000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>598500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>594300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>588900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>581900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>484000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>446400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>437500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>471000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>403800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>432400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>426700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>428000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>395600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>367500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>316500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>293700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E45" s="3">
         <v>56600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>54300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>53300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>9500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>7500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1336100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1335500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1328500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1457500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1497100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1511300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1322500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1273300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1294200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1165400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1061900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1040500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>974000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>830000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>951000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>701500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>643700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>564000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>527400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>559500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>486800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>502300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>486400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>503200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>456300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>416100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>359900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>336200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3890,129 +3995,135 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2869100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2701200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2576500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2463700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2321500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2263500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2144500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2032800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1918300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1782400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1558800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1495700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1396900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1354900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1338600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1278500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1169000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1102700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>998000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>328400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>300300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>271500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>245400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>221000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>200400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>183600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>163800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>150500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>412700</v>
+      </c>
+      <c r="E49" s="3">
         <v>414600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>407100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>407800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>406300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>407100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>407300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>407400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>408200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>408900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>336700</v>
       </c>
       <c r="N49" s="3">
         <v>336700</v>
@@ -4030,7 +4141,7 @@
         <v>336700</v>
       </c>
       <c r="S49" s="3">
-        <v>336800</v>
+        <v>336700</v>
       </c>
       <c r="T49" s="3">
         <v>336800</v>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3">
         <v>336800</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,97 +4363,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E52" s="3">
         <v>24200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4638100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4475500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4335200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4351200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4244700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4199400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3893400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3730700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3628100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3364300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2964700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2880400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2714400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2528700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2633900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2324300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2156900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2011100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1873400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1234100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1131900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1118400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1075900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1068000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1000900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>944200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>868400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>831200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>820400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,97 +4709,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>706300</v>
+      </c>
+      <c r="E57" s="3">
         <v>664700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>572500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>590900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>642100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>770200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>688500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>661900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>634300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>529200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>402100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>417900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>362500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>326000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>319800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>368500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>318400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>272700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>229500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>313500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>237800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>265000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>255000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>258700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>249200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>243600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>205900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>158500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4686,43 +4820,43 @@
         <v>2100</v>
       </c>
       <c r="H58" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>1600</v>
       </c>
       <c r="J58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>3500</v>
@@ -4755,366 +4889,381 @@
         <v>3500</v>
       </c>
       <c r="AE58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AF58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E59" s="3">
         <v>449400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>432000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>413800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>417200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>425500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>403300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>368000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>376100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>325500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>268700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>279300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>253700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>205100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>184100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>174100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>148400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>165400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>87300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>82900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>66800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>72600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>97100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>91500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>75300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>83800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>81700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1174400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1116200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1006500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1006800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1061400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1197300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1093300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1032000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1012000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>860200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>673000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>698800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>618900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>533700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>506500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>552500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>492400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>424600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>398300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>404300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>324200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>335300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>331100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>359300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>344200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>322400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>293200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>243700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E61" s="3">
         <v>230100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>301700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>405600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>371900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>264200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>195800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>195900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>195400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>195500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>207200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>206800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>207000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>413300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>142600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>143300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>140500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>143300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>141800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>142500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>156800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>169800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>185600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>183900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>178300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>351200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>387200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>157600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1383200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1319400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1298500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1281800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1228800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1243700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1202000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1179700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1155300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1129000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1015500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>977000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>957200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>937600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>904800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>864800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>798100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>775100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>711800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>103700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>101500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>91600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>87400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>80300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>84600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>82300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>77800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>65900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>73100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2752600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2665700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2606800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2694100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2662000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2705100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2491000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2407500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2363200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2184700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1884000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1883000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1782900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1678200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1824600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1560000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1433800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1340200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1253400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>649800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>568200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>583700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>588300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>625100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>612800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>583100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>722200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>696900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>479100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1379300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1313400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1241900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1170400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1101200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1025000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>943200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>872200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>822400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>747700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>664800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>589000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>531900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>463100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>431100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>394000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>358700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>317700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>274100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>243600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>225700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>199100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>159200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>119600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>71600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>48300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>27900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>16800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>74300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1885500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1809800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1728400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1657200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1582600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1494300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1402400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1323200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1264900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1179600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1080700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>997400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>931500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>850500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>809300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>764300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>723000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>670900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>620000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>584300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>563700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>534700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>487600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>442900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>388200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>361100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>146100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>134300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>341400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E80" s="2">
         <v>45106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44924</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44833</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44560</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44378</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44287</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44098</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43734</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43552</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43461</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43370</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43279</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43188</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43097</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43006</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42915</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42824</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42733</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71500</v>
+        <v>65900</v>
       </c>
       <c r="E81" s="3">
         <v>71500</v>
       </c>
       <c r="F81" s="3">
+        <v>71500</v>
+      </c>
+      <c r="G81" s="3">
         <v>69200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>81800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>48000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>11100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>16700</v>
       </c>
-      <c r="AE81" s="3" t="s">
+      <c r="AF81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,97 +6806,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E83" s="3">
         <v>49700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>17200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>8300</v>
       </c>
-      <c r="AE83" s="3" t="s">
+      <c r="AF83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E89" s="3">
         <v>226400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>250300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>105100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-63600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>108300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>155600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>136500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>173000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>95100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>41900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>59800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>43300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>40600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>26300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>16400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>56100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>18500</v>
       </c>
-      <c r="AE89" s="3" t="s">
+      <c r="AF89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7484,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-139400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-133800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-108500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-113400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-130000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-145600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-86200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-102800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-42000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-46000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-25700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AE91" s="3" t="s">
+      <c r="AF91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-156900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-139400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-136500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-101400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-130000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-145800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-149600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-102800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-42000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-46000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-25700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-19800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-22400</v>
       </c>
-      <c r="AE94" s="3" t="s">
+      <c r="AF94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,97 +8252,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-70300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>33400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>110600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>72400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-199900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>276600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>7900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>15300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-36300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>4000</v>
       </c>
-      <c r="AE100" s="3" t="s">
+      <c r="AF100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8187,71 +8436,74 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-107600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-190600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>136700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-155500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>262900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>32700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>51000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -8262,18 +8514,21 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
